--- a/Database/MONSAKTI/MONITORING SPP_SPM_SP2D.xlsx
+++ b/Database/MONSAKTI/MONITORING SPP_SPM_SP2D.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="306">
   <si>
     <t>MONITORING SPP/SPM/SP2D</t>
   </si>
@@ -665,139 +665,274 @@
     <t>'231751303000846</t>
   </si>
   <si>
-    <t>'00046T</t>
+    <t>'00047T</t>
+  </si>
+  <si>
+    <t>'03-FEB-23</t>
+  </si>
+  <si>
+    <t>'00047A</t>
+  </si>
+  <si>
+    <t>'231751303001002</t>
+  </si>
+  <si>
+    <t>'07-FEB-23 12.00.00.000000 AM</t>
+  </si>
+  <si>
+    <t>KEKURANGAN GAJI</t>
+  </si>
+  <si>
+    <t>'00048T</t>
+  </si>
+  <si>
+    <t>'00048A</t>
+  </si>
+  <si>
+    <t>'231751303001017</t>
+  </si>
+  <si>
+    <t>'00049T</t>
+  </si>
+  <si>
+    <t>'00049A</t>
+  </si>
+  <si>
+    <t>'231751303000907</t>
+  </si>
+  <si>
+    <t>'00050T</t>
+  </si>
+  <si>
+    <t>'00050A</t>
+  </si>
+  <si>
+    <t>'231751303001019</t>
+  </si>
+  <si>
+    <t>'00051T</t>
   </si>
   <si>
     <t>'06-FEB-23</t>
   </si>
   <si>
+    <t>'00051A</t>
+  </si>
+  <si>
+    <t>'231751303001046</t>
+  </si>
+  <si>
+    <t>'08-FEB-23 12.00.00.000000 AM</t>
+  </si>
+  <si>
+    <t>'00052T</t>
+  </si>
+  <si>
+    <t>'00052A</t>
+  </si>
+  <si>
+    <t>'231751303001016</t>
+  </si>
+  <si>
+    <t>LS-BANYAK PENERIMA</t>
+  </si>
+  <si>
+    <t>'00053T</t>
+  </si>
+  <si>
+    <t>'00053A</t>
+  </si>
+  <si>
+    <t>'231751303001015</t>
+  </si>
+  <si>
+    <t>'00054T</t>
+  </si>
+  <si>
+    <t>'00054A</t>
+  </si>
+  <si>
+    <t>'231751301001866</t>
+  </si>
+  <si>
+    <t>'00055T</t>
+  </si>
+  <si>
+    <t>'00055A</t>
+  </si>
+  <si>
+    <t>'231751303001018</t>
+  </si>
+  <si>
+    <t>'00056T</t>
+  </si>
+  <si>
+    <t>'07-FEB-23</t>
+  </si>
+  <si>
+    <t>'00056A</t>
+  </si>
+  <si>
+    <t>'231751303001229</t>
+  </si>
+  <si>
+    <t>'09-FEB-23 12.00.00.000000 AM</t>
+  </si>
+  <si>
+    <t>'00057T</t>
+  </si>
+  <si>
+    <t>'00057A</t>
+  </si>
+  <si>
+    <t>'231751303001132</t>
+  </si>
+  <si>
+    <t>'00058T</t>
+  </si>
+  <si>
+    <t>'00058A</t>
+  </si>
+  <si>
+    <t>'231751303001133</t>
+  </si>
+  <si>
+    <t>'00059T</t>
+  </si>
+  <si>
+    <t>'08-FEB-23</t>
+  </si>
+  <si>
+    <t>'00059A</t>
+  </si>
+  <si>
+    <t>'231751301002378</t>
+  </si>
+  <si>
+    <t>'10-FEB-23 12.00.00.000000 AM</t>
+  </si>
+  <si>
+    <t>'00060T</t>
+  </si>
+  <si>
+    <t>'00060A</t>
+  </si>
+  <si>
+    <t>'231751302001450</t>
+  </si>
+  <si>
+    <t>'00061T</t>
+  </si>
+  <si>
+    <t>'00061A</t>
+  </si>
+  <si>
+    <t>'231751303001265</t>
+  </si>
+  <si>
+    <t>EBB</t>
+  </si>
+  <si>
+    <t>'00062T</t>
+  </si>
+  <si>
+    <t>'00062A</t>
+  </si>
+  <si>
+    <t>'231751302001445</t>
+  </si>
+  <si>
+    <t>'00063T</t>
+  </si>
+  <si>
+    <t>'00063A</t>
+  </si>
+  <si>
+    <t>'231751303001230</t>
+  </si>
+  <si>
+    <t>'00064T</t>
+  </si>
+  <si>
+    <t>'00064A</t>
+  </si>
+  <si>
+    <t>13-FEB-23</t>
+  </si>
+  <si>
+    <t>Cetak SPM</t>
+  </si>
+  <si>
+    <t>'00065T</t>
+  </si>
+  <si>
+    <t>'00065A</t>
+  </si>
+  <si>
+    <t>'00066T</t>
+  </si>
+  <si>
+    <t>'00066A</t>
+  </si>
+  <si>
+    <t>'00067T</t>
+  </si>
+  <si>
+    <t>'09-FEB-23</t>
+  </si>
+  <si>
+    <t>'00067A</t>
+  </si>
+  <si>
+    <t>'231751303001408</t>
+  </si>
+  <si>
     <t>Penghasilan PPNPN Susulan</t>
   </si>
   <si>
-    <t>Baru</t>
-  </si>
-  <si>
-    <t>'00047T</t>
-  </si>
-  <si>
-    <t>'03-FEB-23</t>
-  </si>
-  <si>
-    <t>'00047A</t>
-  </si>
-  <si>
-    <t>'231751303001002</t>
-  </si>
-  <si>
-    <t>'07-FEB-23 12.00.00.000000 AM</t>
-  </si>
-  <si>
-    <t>KEKURANGAN GAJI</t>
-  </si>
-  <si>
-    <t>'00048T</t>
-  </si>
-  <si>
-    <t>'00048A</t>
-  </si>
-  <si>
-    <t>'231751303001017</t>
-  </si>
-  <si>
-    <t>'00049T</t>
-  </si>
-  <si>
-    <t>'00049A</t>
-  </si>
-  <si>
-    <t>'231751303000907</t>
-  </si>
-  <si>
-    <t>'00050T</t>
-  </si>
-  <si>
-    <t>'00050A</t>
-  </si>
-  <si>
-    <t>'231751303001019</t>
-  </si>
-  <si>
-    <t>'00051T</t>
-  </si>
-  <si>
-    <t>'00051A</t>
-  </si>
-  <si>
-    <t>'231751303001046</t>
-  </si>
-  <si>
-    <t>'08-FEB-23 12.00.00.000000 AM</t>
-  </si>
-  <si>
-    <t>'00052T</t>
-  </si>
-  <si>
-    <t>'00052A</t>
-  </si>
-  <si>
-    <t>'231751303001016</t>
-  </si>
-  <si>
-    <t>LS-BANYAK PENERIMA</t>
-  </si>
-  <si>
-    <t>'00053T</t>
-  </si>
-  <si>
-    <t>'00053A</t>
-  </si>
-  <si>
-    <t>'231751303001015</t>
-  </si>
-  <si>
-    <t>'00054T</t>
-  </si>
-  <si>
-    <t>'00054A</t>
-  </si>
-  <si>
-    <t>'231751301001866</t>
-  </si>
-  <si>
-    <t>'00055T</t>
-  </si>
-  <si>
-    <t>'00055A</t>
-  </si>
-  <si>
-    <t>'231751303001018</t>
-  </si>
-  <si>
-    <t>'00056T</t>
-  </si>
-  <si>
-    <t>'07-FEB-23</t>
-  </si>
-  <si>
-    <t>'00056A</t>
-  </si>
-  <si>
-    <t>Cetak SPM</t>
-  </si>
-  <si>
-    <t>'00057T</t>
-  </si>
-  <si>
-    <t>'00057A</t>
-  </si>
-  <si>
-    <t>ADK SPM</t>
-  </si>
-  <si>
-    <t>'00058T</t>
-  </si>
-  <si>
-    <t>'00058A</t>
+    <t>'00068T</t>
+  </si>
+  <si>
+    <t>10-FEB-23</t>
+  </si>
+  <si>
+    <t>'00068A</t>
+  </si>
+  <si>
+    <t>'231751303001475</t>
+  </si>
+  <si>
+    <t>'00069T</t>
+  </si>
+  <si>
+    <t>'00069A</t>
+  </si>
+  <si>
+    <t>'231751303001503</t>
+  </si>
+  <si>
+    <t>'13-FEB-23 12.00.00.000000 AM</t>
+  </si>
+  <si>
+    <t>GAJI LAINNYA</t>
+  </si>
+  <si>
+    <t>'00070T</t>
+  </si>
+  <si>
+    <t>'00070A</t>
+  </si>
+  <si>
+    <t>'231751303001501</t>
+  </si>
+  <si>
+    <t>'00071T</t>
+  </si>
+  <si>
+    <t>'00071A</t>
+  </si>
+  <si>
+    <t>'231751303001502</t>
   </si>
 </sst>
 </file>
@@ -1139,7 +1274,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:Y306"/>
+  <dimension ref="A1:Y335"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="Y3" sqref="Y3"/>
@@ -21099,27 +21234,41 @@
       <c r="G263" t="s">
         <v>217</v>
       </c>
-      <c r="H263"/>
-      <c r="I263"/>
-      <c r="J263"/>
-      <c r="K263"/>
-      <c r="L263"/>
-      <c r="M263"/>
+      <c r="H263" t="s">
+        <v>218</v>
+      </c>
+      <c r="I263" t="s">
+        <v>217</v>
+      </c>
+      <c r="J263" t="s">
+        <v>32</v>
+      </c>
+      <c r="K263" t="s">
+        <v>219</v>
+      </c>
+      <c r="L263" t="s">
+        <v>220</v>
+      </c>
+      <c r="M263" t="s">
+        <v>154</v>
+      </c>
       <c r="N263" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="O263" t="s">
-        <v>219</v>
-      </c>
-      <c r="P263"/>
+        <v>36</v>
+      </c>
+      <c r="P263" t="s">
+        <v>37</v>
+      </c>
       <c r="Q263">
-        <v>10105920</v>
+        <v>44187800</v>
       </c>
       <c r="R263">
-        <v>10208000</v>
+        <v>114962050</v>
       </c>
       <c r="S263">
-        <v>102080</v>
+        <v>70774250</v>
       </c>
       <c r="T263">
         <v>2378</v>
@@ -21128,16 +21277,16 @@
         <v>38</v>
       </c>
       <c r="V263">
-        <v>521111</v>
+        <v>511124</v>
       </c>
       <c r="W263">
-        <v>10208000</v>
+        <v>114960000</v>
       </c>
       <c r="X263">
-        <v>811141</v>
+        <v>411121</v>
       </c>
       <c r="Y263">
-        <v>102080</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="264" spans="1:25">
@@ -21157,31 +21306,31 @@
         <v>28</v>
       </c>
       <c r="F264" t="s">
+        <v>216</v>
+      </c>
+      <c r="G264" t="s">
+        <v>217</v>
+      </c>
+      <c r="H264" t="s">
+        <v>218</v>
+      </c>
+      <c r="I264" t="s">
+        <v>217</v>
+      </c>
+      <c r="J264" t="s">
+        <v>32</v>
+      </c>
+      <c r="K264" t="s">
+        <v>219</v>
+      </c>
+      <c r="L264" t="s">
         <v>220</v>
-      </c>
-      <c r="G264" t="s">
-        <v>221</v>
-      </c>
-      <c r="H264" t="s">
-        <v>222</v>
-      </c>
-      <c r="I264" t="s">
-        <v>221</v>
-      </c>
-      <c r="J264" t="s">
-        <v>32</v>
-      </c>
-      <c r="K264" t="s">
-        <v>223</v>
-      </c>
-      <c r="L264" t="s">
-        <v>224</v>
       </c>
       <c r="M264" t="s">
         <v>154</v>
       </c>
       <c r="N264" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="O264" t="s">
         <v>36</v>
@@ -21211,10 +21360,10 @@
         <v>114960000</v>
       </c>
       <c r="X264">
-        <v>411121</v>
+        <v>511124</v>
       </c>
       <c r="Y264">
-        <v>2050</v>
+        <v>70200000</v>
       </c>
     </row>
     <row r="265" spans="1:25">
@@ -21234,31 +21383,31 @@
         <v>28</v>
       </c>
       <c r="F265" t="s">
+        <v>216</v>
+      </c>
+      <c r="G265" t="s">
+        <v>217</v>
+      </c>
+      <c r="H265" t="s">
+        <v>218</v>
+      </c>
+      <c r="I265" t="s">
+        <v>217</v>
+      </c>
+      <c r="J265" t="s">
+        <v>32</v>
+      </c>
+      <c r="K265" t="s">
+        <v>219</v>
+      </c>
+      <c r="L265" t="s">
         <v>220</v>
-      </c>
-      <c r="G265" t="s">
-        <v>221</v>
-      </c>
-      <c r="H265" t="s">
-        <v>222</v>
-      </c>
-      <c r="I265" t="s">
-        <v>221</v>
-      </c>
-      <c r="J265" t="s">
-        <v>32</v>
-      </c>
-      <c r="K265" t="s">
-        <v>223</v>
-      </c>
-      <c r="L265" t="s">
-        <v>224</v>
       </c>
       <c r="M265" t="s">
         <v>154</v>
       </c>
       <c r="N265" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="O265" t="s">
         <v>36</v>
@@ -21288,10 +21437,10 @@
         <v>114960000</v>
       </c>
       <c r="X265">
-        <v>511124</v>
+        <v>811135</v>
       </c>
       <c r="Y265">
-        <v>70200000</v>
+        <v>572200</v>
       </c>
     </row>
     <row r="266" spans="1:25">
@@ -21311,31 +21460,31 @@
         <v>28</v>
       </c>
       <c r="F266" t="s">
+        <v>216</v>
+      </c>
+      <c r="G266" t="s">
+        <v>217</v>
+      </c>
+      <c r="H266" t="s">
+        <v>218</v>
+      </c>
+      <c r="I266" t="s">
+        <v>217</v>
+      </c>
+      <c r="J266" t="s">
+        <v>32</v>
+      </c>
+      <c r="K266" t="s">
+        <v>219</v>
+      </c>
+      <c r="L266" t="s">
         <v>220</v>
-      </c>
-      <c r="G266" t="s">
-        <v>221</v>
-      </c>
-      <c r="H266" t="s">
-        <v>222</v>
-      </c>
-      <c r="I266" t="s">
-        <v>221</v>
-      </c>
-      <c r="J266" t="s">
-        <v>32</v>
-      </c>
-      <c r="K266" t="s">
-        <v>223</v>
-      </c>
-      <c r="L266" t="s">
-        <v>224</v>
       </c>
       <c r="M266" t="s">
         <v>154</v>
       </c>
       <c r="N266" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="O266" t="s">
         <v>36</v>
@@ -21359,16 +21508,16 @@
         <v>38</v>
       </c>
       <c r="V266">
-        <v>511124</v>
+        <v>511125</v>
       </c>
       <c r="W266">
-        <v>114960000</v>
+        <v>2050</v>
       </c>
       <c r="X266">
-        <v>811135</v>
+        <v>411121</v>
       </c>
       <c r="Y266">
-        <v>572200</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="267" spans="1:25">
@@ -21388,31 +21537,31 @@
         <v>28</v>
       </c>
       <c r="F267" t="s">
+        <v>216</v>
+      </c>
+      <c r="G267" t="s">
+        <v>217</v>
+      </c>
+      <c r="H267" t="s">
+        <v>218</v>
+      </c>
+      <c r="I267" t="s">
+        <v>217</v>
+      </c>
+      <c r="J267" t="s">
+        <v>32</v>
+      </c>
+      <c r="K267" t="s">
+        <v>219</v>
+      </c>
+      <c r="L267" t="s">
         <v>220</v>
-      </c>
-      <c r="G267" t="s">
-        <v>221</v>
-      </c>
-      <c r="H267" t="s">
-        <v>222</v>
-      </c>
-      <c r="I267" t="s">
-        <v>221</v>
-      </c>
-      <c r="J267" t="s">
-        <v>32</v>
-      </c>
-      <c r="K267" t="s">
-        <v>223</v>
-      </c>
-      <c r="L267" t="s">
-        <v>224</v>
       </c>
       <c r="M267" t="s">
         <v>154</v>
       </c>
       <c r="N267" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="O267" t="s">
         <v>36</v>
@@ -21442,10 +21591,10 @@
         <v>2050</v>
       </c>
       <c r="X267">
-        <v>411121</v>
+        <v>511124</v>
       </c>
       <c r="Y267">
-        <v>2050</v>
+        <v>70200000</v>
       </c>
     </row>
     <row r="268" spans="1:25">
@@ -21465,31 +21614,31 @@
         <v>28</v>
       </c>
       <c r="F268" t="s">
+        <v>216</v>
+      </c>
+      <c r="G268" t="s">
+        <v>217</v>
+      </c>
+      <c r="H268" t="s">
+        <v>218</v>
+      </c>
+      <c r="I268" t="s">
+        <v>217</v>
+      </c>
+      <c r="J268" t="s">
+        <v>32</v>
+      </c>
+      <c r="K268" t="s">
+        <v>219</v>
+      </c>
+      <c r="L268" t="s">
         <v>220</v>
-      </c>
-      <c r="G268" t="s">
-        <v>221</v>
-      </c>
-      <c r="H268" t="s">
-        <v>222</v>
-      </c>
-      <c r="I268" t="s">
-        <v>221</v>
-      </c>
-      <c r="J268" t="s">
-        <v>32</v>
-      </c>
-      <c r="K268" t="s">
-        <v>223</v>
-      </c>
-      <c r="L268" t="s">
-        <v>224</v>
       </c>
       <c r="M268" t="s">
         <v>154</v>
       </c>
       <c r="N268" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="O268" t="s">
         <v>36</v>
@@ -21519,10 +21668,10 @@
         <v>2050</v>
       </c>
       <c r="X268">
-        <v>511124</v>
+        <v>811135</v>
       </c>
       <c r="Y268">
-        <v>70200000</v>
+        <v>572200</v>
       </c>
     </row>
     <row r="269" spans="1:25">
@@ -21542,31 +21691,31 @@
         <v>28</v>
       </c>
       <c r="F269" t="s">
+        <v>222</v>
+      </c>
+      <c r="G269" t="s">
+        <v>217</v>
+      </c>
+      <c r="H269" t="s">
+        <v>223</v>
+      </c>
+      <c r="I269" t="s">
+        <v>217</v>
+      </c>
+      <c r="J269" t="s">
+        <v>32</v>
+      </c>
+      <c r="K269" t="s">
+        <v>224</v>
+      </c>
+      <c r="L269" t="s">
         <v>220</v>
-      </c>
-      <c r="G269" t="s">
-        <v>221</v>
-      </c>
-      <c r="H269" t="s">
-        <v>222</v>
-      </c>
-      <c r="I269" t="s">
-        <v>221</v>
-      </c>
-      <c r="J269" t="s">
-        <v>32</v>
-      </c>
-      <c r="K269" t="s">
-        <v>223</v>
-      </c>
-      <c r="L269" t="s">
-        <v>224</v>
       </c>
       <c r="M269" t="s">
         <v>154</v>
       </c>
       <c r="N269" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="O269" t="s">
         <v>36</v>
@@ -21575,13 +21724,13 @@
         <v>37</v>
       </c>
       <c r="Q269">
-        <v>44187800</v>
+        <v>25359600</v>
       </c>
       <c r="R269">
-        <v>114962050</v>
+        <v>75667110</v>
       </c>
       <c r="S269">
-        <v>70774250</v>
+        <v>50307510</v>
       </c>
       <c r="T269">
         <v>2378</v>
@@ -21590,16 +21739,16 @@
         <v>38</v>
       </c>
       <c r="V269">
-        <v>511125</v>
+        <v>511119</v>
       </c>
       <c r="W269">
-        <v>2050</v>
+        <v>1900</v>
       </c>
       <c r="X269">
-        <v>811135</v>
+        <v>411121</v>
       </c>
       <c r="Y269">
-        <v>572200</v>
+        <v>265210</v>
       </c>
     </row>
     <row r="270" spans="1:25">
@@ -21619,31 +21768,31 @@
         <v>28</v>
       </c>
       <c r="F270" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="G270" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="H270" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="I270" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="J270" t="s">
         <v>32</v>
       </c>
       <c r="K270" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="L270" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="M270" t="s">
         <v>154</v>
       </c>
       <c r="N270" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="O270" t="s">
         <v>36</v>
@@ -21673,10 +21822,10 @@
         <v>1900</v>
       </c>
       <c r="X270">
-        <v>411121</v>
+        <v>511124</v>
       </c>
       <c r="Y270">
-        <v>265210</v>
+        <v>49680300</v>
       </c>
     </row>
     <row r="271" spans="1:25">
@@ -21696,31 +21845,31 @@
         <v>28</v>
       </c>
       <c r="F271" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="G271" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="H271" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="I271" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="J271" t="s">
         <v>32</v>
       </c>
       <c r="K271" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="L271" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="M271" t="s">
         <v>154</v>
       </c>
       <c r="N271" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="O271" t="s">
         <v>36</v>
@@ -21750,10 +21899,10 @@
         <v>1900</v>
       </c>
       <c r="X271">
-        <v>511124</v>
+        <v>811135</v>
       </c>
       <c r="Y271">
-        <v>49680300</v>
+        <v>362000</v>
       </c>
     </row>
     <row r="272" spans="1:25">
@@ -21773,31 +21922,31 @@
         <v>28</v>
       </c>
       <c r="F272" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="G272" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="H272" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="I272" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="J272" t="s">
         <v>32</v>
       </c>
       <c r="K272" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="L272" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="M272" t="s">
         <v>154</v>
       </c>
       <c r="N272" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="O272" t="s">
         <v>36</v>
@@ -21821,16 +21970,16 @@
         <v>38</v>
       </c>
       <c r="V272">
-        <v>511119</v>
+        <v>511124</v>
       </c>
       <c r="W272">
-        <v>1900</v>
+        <v>75400000</v>
       </c>
       <c r="X272">
-        <v>811135</v>
+        <v>411121</v>
       </c>
       <c r="Y272">
-        <v>362000</v>
+        <v>265210</v>
       </c>
     </row>
     <row r="273" spans="1:25">
@@ -21850,31 +21999,31 @@
         <v>28</v>
       </c>
       <c r="F273" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="G273" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="H273" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="I273" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="J273" t="s">
         <v>32</v>
       </c>
       <c r="K273" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="L273" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="M273" t="s">
         <v>154</v>
       </c>
       <c r="N273" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="O273" t="s">
         <v>36</v>
@@ -21904,10 +22053,10 @@
         <v>75400000</v>
       </c>
       <c r="X273">
-        <v>411121</v>
+        <v>511124</v>
       </c>
       <c r="Y273">
-        <v>265210</v>
+        <v>49680300</v>
       </c>
     </row>
     <row r="274" spans="1:25">
@@ -21927,31 +22076,31 @@
         <v>28</v>
       </c>
       <c r="F274" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="G274" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="H274" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="I274" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="J274" t="s">
         <v>32</v>
       </c>
       <c r="K274" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="L274" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="M274" t="s">
         <v>154</v>
       </c>
       <c r="N274" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="O274" t="s">
         <v>36</v>
@@ -21981,10 +22130,10 @@
         <v>75400000</v>
       </c>
       <c r="X274">
-        <v>511124</v>
+        <v>811135</v>
       </c>
       <c r="Y274">
-        <v>49680300</v>
+        <v>362000</v>
       </c>
     </row>
     <row r="275" spans="1:25">
@@ -22004,31 +22153,31 @@
         <v>28</v>
       </c>
       <c r="F275" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="G275" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="H275" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="I275" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="J275" t="s">
         <v>32</v>
       </c>
       <c r="K275" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="L275" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="M275" t="s">
         <v>154</v>
       </c>
       <c r="N275" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="O275" t="s">
         <v>36</v>
@@ -22052,16 +22201,16 @@
         <v>38</v>
       </c>
       <c r="V275">
-        <v>511124</v>
+        <v>511125</v>
       </c>
       <c r="W275">
-        <v>75400000</v>
+        <v>265210</v>
       </c>
       <c r="X275">
-        <v>811135</v>
+        <v>411121</v>
       </c>
       <c r="Y275">
-        <v>362000</v>
+        <v>265210</v>
       </c>
     </row>
     <row r="276" spans="1:25">
@@ -22081,31 +22230,31 @@
         <v>28</v>
       </c>
       <c r="F276" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="G276" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="H276" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="I276" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="J276" t="s">
         <v>32</v>
       </c>
       <c r="K276" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="L276" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="M276" t="s">
         <v>154</v>
       </c>
       <c r="N276" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="O276" t="s">
         <v>36</v>
@@ -22135,10 +22284,10 @@
         <v>265210</v>
       </c>
       <c r="X276">
-        <v>411121</v>
+        <v>511124</v>
       </c>
       <c r="Y276">
-        <v>265210</v>
+        <v>49680300</v>
       </c>
     </row>
     <row r="277" spans="1:25">
@@ -22158,31 +22307,31 @@
         <v>28</v>
       </c>
       <c r="F277" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="G277" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="H277" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="I277" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="J277" t="s">
         <v>32</v>
       </c>
       <c r="K277" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="L277" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="M277" t="s">
         <v>154</v>
       </c>
       <c r="N277" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="O277" t="s">
         <v>36</v>
@@ -22212,10 +22361,10 @@
         <v>265210</v>
       </c>
       <c r="X277">
-        <v>511124</v>
+        <v>811135</v>
       </c>
       <c r="Y277">
-        <v>49680300</v>
+        <v>362000</v>
       </c>
     </row>
     <row r="278" spans="1:25">
@@ -22235,32 +22384,32 @@
         <v>28</v>
       </c>
       <c r="F278" t="s">
+        <v>225</v>
+      </c>
+      <c r="G278" t="s">
+        <v>217</v>
+      </c>
+      <c r="H278" t="s">
         <v>226</v>
       </c>
-      <c r="G278" t="s">
+      <c r="I278" t="s">
+        <v>217</v>
+      </c>
+      <c r="J278" t="s">
+        <v>32</v>
+      </c>
+      <c r="K278" t="s">
+        <v>227</v>
+      </c>
+      <c r="L278" t="s">
+        <v>193</v>
+      </c>
+      <c r="M278" t="s">
+        <v>145</v>
+      </c>
+      <c r="N278" t="s">
         <v>221</v>
       </c>
-      <c r="H278" t="s">
-        <v>227</v>
-      </c>
-      <c r="I278" t="s">
-        <v>221</v>
-      </c>
-      <c r="J278" t="s">
-        <v>32</v>
-      </c>
-      <c r="K278" t="s">
-        <v>228</v>
-      </c>
-      <c r="L278" t="s">
-        <v>224</v>
-      </c>
-      <c r="M278" t="s">
-        <v>154</v>
-      </c>
-      <c r="N278" t="s">
-        <v>225</v>
-      </c>
       <c r="O278" t="s">
         <v>36</v>
       </c>
@@ -22268,13 +22417,13 @@
         <v>37</v>
       </c>
       <c r="Q278">
-        <v>25359600</v>
+        <v>34600600</v>
       </c>
       <c r="R278">
-        <v>75667110</v>
+        <v>91040000</v>
       </c>
       <c r="S278">
-        <v>50307510</v>
+        <v>56439400</v>
       </c>
       <c r="T278">
         <v>2378</v>
@@ -22283,16 +22432,16 @@
         <v>38</v>
       </c>
       <c r="V278">
-        <v>511125</v>
+        <v>511124</v>
       </c>
       <c r="W278">
-        <v>265210</v>
+        <v>91040000</v>
       </c>
       <c r="X278">
-        <v>811135</v>
+        <v>511124</v>
       </c>
       <c r="Y278">
-        <v>362000</v>
+        <v>56160000</v>
       </c>
     </row>
     <row r="279" spans="1:25">
@@ -22312,22 +22461,22 @@
         <v>28</v>
       </c>
       <c r="F279" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="G279" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="H279" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="I279" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="J279" t="s">
         <v>32</v>
       </c>
       <c r="K279" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="L279" t="s">
         <v>193</v>
@@ -22336,7 +22485,7 @@
         <v>145</v>
       </c>
       <c r="N279" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="O279" t="s">
         <v>36</v>
@@ -22366,10 +22515,10 @@
         <v>91040000</v>
       </c>
       <c r="X279">
-        <v>511124</v>
+        <v>811135</v>
       </c>
       <c r="Y279">
-        <v>56160000</v>
+        <v>279400</v>
       </c>
     </row>
     <row r="280" spans="1:25">
@@ -22389,31 +22538,31 @@
         <v>28</v>
       </c>
       <c r="F280" t="s">
+        <v>228</v>
+      </c>
+      <c r="G280" t="s">
+        <v>217</v>
+      </c>
+      <c r="H280" t="s">
         <v>229</v>
       </c>
-      <c r="G280" t="s">
-        <v>221</v>
-      </c>
-      <c r="H280" t="s">
+      <c r="I280" t="s">
+        <v>217</v>
+      </c>
+      <c r="J280" t="s">
+        <v>32</v>
+      </c>
+      <c r="K280" t="s">
         <v>230</v>
       </c>
-      <c r="I280" t="s">
-        <v>221</v>
-      </c>
-      <c r="J280" t="s">
-        <v>32</v>
-      </c>
-      <c r="K280" t="s">
-        <v>231</v>
-      </c>
       <c r="L280" t="s">
-        <v>193</v>
+        <v>220</v>
       </c>
       <c r="M280" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="N280" t="s">
-        <v>225</v>
+        <v>51</v>
       </c>
       <c r="O280" t="s">
         <v>36</v>
@@ -22422,13 +22571,13 @@
         <v>37</v>
       </c>
       <c r="Q280">
-        <v>34600600</v>
+        <v>6835800</v>
       </c>
       <c r="R280">
-        <v>91040000</v>
+        <v>7551076</v>
       </c>
       <c r="S280">
-        <v>56439400</v>
+        <v>715276</v>
       </c>
       <c r="T280">
         <v>2378</v>
@@ -22437,16 +22586,16 @@
         <v>38</v>
       </c>
       <c r="V280">
-        <v>511124</v>
+        <v>511111</v>
       </c>
       <c r="W280">
-        <v>91040000</v>
+        <v>7036200</v>
       </c>
       <c r="X280">
-        <v>811135</v>
+        <v>811132</v>
       </c>
       <c r="Y280">
-        <v>279400</v>
+        <v>562896</v>
       </c>
     </row>
     <row r="281" spans="1:25">
@@ -22466,25 +22615,25 @@
         <v>28</v>
       </c>
       <c r="F281" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="G281" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="H281" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="I281" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="J281" t="s">
         <v>32</v>
       </c>
       <c r="K281" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="L281" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="M281" t="s">
         <v>154</v>
@@ -22520,10 +22669,10 @@
         <v>7036200</v>
       </c>
       <c r="X281">
-        <v>811132</v>
+        <v>811135</v>
       </c>
       <c r="Y281">
-        <v>562896</v>
+        <v>152380</v>
       </c>
     </row>
     <row r="282" spans="1:25">
@@ -22543,25 +22692,25 @@
         <v>28</v>
       </c>
       <c r="F282" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="G282" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="H282" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="I282" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="J282" t="s">
         <v>32</v>
       </c>
       <c r="K282" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="L282" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="M282" t="s">
         <v>154</v>
@@ -22591,16 +22740,16 @@
         <v>38</v>
       </c>
       <c r="V282">
-        <v>511111</v>
+        <v>511119</v>
       </c>
       <c r="W282">
-        <v>7036200</v>
+        <v>36</v>
       </c>
       <c r="X282">
-        <v>811135</v>
+        <v>811132</v>
       </c>
       <c r="Y282">
-        <v>152380</v>
+        <v>562896</v>
       </c>
     </row>
     <row r="283" spans="1:25">
@@ -22620,25 +22769,25 @@
         <v>28</v>
       </c>
       <c r="F283" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="G283" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="H283" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="I283" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="J283" t="s">
         <v>32</v>
       </c>
       <c r="K283" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="L283" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="M283" t="s">
         <v>154</v>
@@ -22674,10 +22823,10 @@
         <v>36</v>
       </c>
       <c r="X283">
-        <v>811132</v>
+        <v>811135</v>
       </c>
       <c r="Y283">
-        <v>562896</v>
+        <v>152380</v>
       </c>
     </row>
     <row r="284" spans="1:25">
@@ -22697,25 +22846,25 @@
         <v>28</v>
       </c>
       <c r="F284" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="G284" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="H284" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="I284" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="J284" t="s">
         <v>32</v>
       </c>
       <c r="K284" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="L284" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="M284" t="s">
         <v>154</v>
@@ -22745,16 +22894,16 @@
         <v>38</v>
       </c>
       <c r="V284">
-        <v>511119</v>
+        <v>511126</v>
       </c>
       <c r="W284">
-        <v>36</v>
+        <v>144840</v>
       </c>
       <c r="X284">
-        <v>811135</v>
+        <v>811132</v>
       </c>
       <c r="Y284">
-        <v>152380</v>
+        <v>562896</v>
       </c>
     </row>
     <row r="285" spans="1:25">
@@ -22774,25 +22923,25 @@
         <v>28</v>
       </c>
       <c r="F285" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="G285" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="H285" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="I285" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="J285" t="s">
         <v>32</v>
       </c>
       <c r="K285" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="L285" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="M285" t="s">
         <v>154</v>
@@ -22828,10 +22977,10 @@
         <v>144840</v>
       </c>
       <c r="X285">
-        <v>811132</v>
+        <v>811135</v>
       </c>
       <c r="Y285">
-        <v>562896</v>
+        <v>152380</v>
       </c>
     </row>
     <row r="286" spans="1:25">
@@ -22851,25 +23000,25 @@
         <v>28</v>
       </c>
       <c r="F286" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="G286" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="H286" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="I286" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="J286" t="s">
         <v>32</v>
       </c>
       <c r="K286" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="L286" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="M286" t="s">
         <v>154</v>
@@ -22899,16 +23048,16 @@
         <v>38</v>
       </c>
       <c r="V286">
-        <v>511126</v>
+        <v>511151</v>
       </c>
       <c r="W286">
-        <v>144840</v>
+        <v>370000</v>
       </c>
       <c r="X286">
-        <v>811135</v>
+        <v>811132</v>
       </c>
       <c r="Y286">
-        <v>152380</v>
+        <v>562896</v>
       </c>
     </row>
     <row r="287" spans="1:25">
@@ -22928,25 +23077,25 @@
         <v>28</v>
       </c>
       <c r="F287" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="G287" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="H287" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="I287" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="J287" t="s">
         <v>32</v>
       </c>
       <c r="K287" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="L287" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="M287" t="s">
         <v>154</v>
@@ -22982,10 +23131,10 @@
         <v>370000</v>
       </c>
       <c r="X287">
-        <v>811132</v>
+        <v>811135</v>
       </c>
       <c r="Y287">
-        <v>562896</v>
+        <v>152380</v>
       </c>
     </row>
     <row r="288" spans="1:25">
@@ -23005,16 +23154,16 @@
         <v>28</v>
       </c>
       <c r="F288" t="s">
+        <v>231</v>
+      </c>
+      <c r="G288" t="s">
         <v>232</v>
-      </c>
-      <c r="G288" t="s">
-        <v>221</v>
       </c>
       <c r="H288" t="s">
         <v>233</v>
       </c>
       <c r="I288" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="J288" t="s">
         <v>32</v>
@@ -23023,13 +23172,13 @@
         <v>234</v>
       </c>
       <c r="L288" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="M288" t="s">
-        <v>154</v>
+        <v>78</v>
       </c>
       <c r="N288" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="O288" t="s">
         <v>36</v>
@@ -23038,13 +23187,13 @@
         <v>37</v>
       </c>
       <c r="Q288">
-        <v>6835800</v>
+        <v>7370735</v>
       </c>
       <c r="R288">
-        <v>7551076</v>
+        <v>7370735</v>
       </c>
       <c r="S288">
-        <v>715276</v>
+        <v>0</v>
       </c>
       <c r="T288">
         <v>2378</v>
@@ -23053,16 +23202,14 @@
         <v>38</v>
       </c>
       <c r="V288">
-        <v>511151</v>
+        <v>524111</v>
       </c>
       <c r="W288">
-        <v>370000</v>
-      </c>
-      <c r="X288">
-        <v>811135</v>
-      </c>
+        <v>7370735</v>
+      </c>
+      <c r="X288"/>
       <c r="Y288">
-        <v>152380</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:25">
@@ -23082,31 +23229,31 @@
         <v>28</v>
       </c>
       <c r="F289" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G289" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="H289" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I289" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="J289" t="s">
         <v>32</v>
       </c>
       <c r="K289" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L289" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
       <c r="M289" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="N289" t="s">
-        <v>79</v>
+        <v>239</v>
       </c>
       <c r="O289" t="s">
         <v>36</v>
@@ -23115,13 +23262,13 @@
         <v>37</v>
       </c>
       <c r="Q289">
-        <v>7370735</v>
+        <v>388493717</v>
       </c>
       <c r="R289">
-        <v>7370735</v>
+        <v>411490206</v>
       </c>
       <c r="S289">
-        <v>0</v>
+        <v>22996489</v>
       </c>
       <c r="T289">
         <v>2378</v>
@@ -23130,14 +23277,16 @@
         <v>38</v>
       </c>
       <c r="V289">
-        <v>524111</v>
+        <v>512411</v>
       </c>
       <c r="W289">
-        <v>7370735</v>
-      </c>
-      <c r="X289"/>
+        <v>411490206</v>
+      </c>
+      <c r="X289">
+        <v>411121</v>
+      </c>
       <c r="Y289">
-        <v>0</v>
+        <v>22996489</v>
       </c>
     </row>
     <row r="290" spans="1:25">
@@ -23157,31 +23306,31 @@
         <v>28</v>
       </c>
       <c r="F290" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G290" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="H290" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I290" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="J290" t="s">
         <v>32</v>
       </c>
       <c r="K290" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L290" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="M290" t="s">
         <v>50</v>
       </c>
       <c r="N290" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="O290" t="s">
         <v>36</v>
@@ -23190,13 +23339,13 @@
         <v>37</v>
       </c>
       <c r="Q290">
-        <v>388493717</v>
+        <v>192068114</v>
       </c>
       <c r="R290">
-        <v>411490206</v>
+        <v>204565986</v>
       </c>
       <c r="S290">
-        <v>22996489</v>
+        <v>12497872</v>
       </c>
       <c r="T290">
         <v>2378</v>
@@ -23208,13 +23357,13 @@
         <v>512411</v>
       </c>
       <c r="W290">
-        <v>411490206</v>
+        <v>204565986</v>
       </c>
       <c r="X290">
         <v>411121</v>
       </c>
       <c r="Y290">
-        <v>22996489</v>
+        <v>12497872</v>
       </c>
     </row>
     <row r="291" spans="1:25">
@@ -23237,13 +23386,13 @@
         <v>243</v>
       </c>
       <c r="G291" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="H291" t="s">
         <v>244</v>
       </c>
       <c r="I291" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="J291" t="s">
         <v>32</v>
@@ -23252,13 +23401,13 @@
         <v>245</v>
       </c>
       <c r="L291" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="M291" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="N291" t="s">
-        <v>242</v>
+        <v>79</v>
       </c>
       <c r="O291" t="s">
         <v>36</v>
@@ -23267,31 +23416,31 @@
         <v>37</v>
       </c>
       <c r="Q291">
-        <v>192068114</v>
+        <v>21740991</v>
       </c>
       <c r="R291">
-        <v>204565986</v>
+        <v>24500000</v>
       </c>
       <c r="S291">
-        <v>12497872</v>
+        <v>2759009</v>
       </c>
       <c r="T291">
         <v>2378</v>
       </c>
       <c r="U291" t="s">
-        <v>38</v>
+        <v>109</v>
       </c>
       <c r="V291">
-        <v>512411</v>
+        <v>521211</v>
       </c>
       <c r="W291">
-        <v>204565986</v>
+        <v>24500000</v>
       </c>
       <c r="X291">
-        <v>411121</v>
+        <v>411122</v>
       </c>
       <c r="Y291">
-        <v>12497872</v>
+        <v>331081</v>
       </c>
     </row>
     <row r="292" spans="1:25">
@@ -23311,25 +23460,25 @@
         <v>28</v>
       </c>
       <c r="F292" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G292" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="H292" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="I292" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="J292" t="s">
         <v>32</v>
       </c>
       <c r="K292" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="L292" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="M292" t="s">
         <v>78</v>
@@ -23365,10 +23514,10 @@
         <v>24500000</v>
       </c>
       <c r="X292">
-        <v>411122</v>
+        <v>411211</v>
       </c>
       <c r="Y292">
-        <v>331081</v>
+        <v>2427928</v>
       </c>
     </row>
     <row r="293" spans="1:25">
@@ -23391,13 +23540,13 @@
         <v>246</v>
       </c>
       <c r="G293" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="H293" t="s">
         <v>247</v>
       </c>
       <c r="I293" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="J293" t="s">
         <v>32</v>
@@ -23406,13 +23555,13 @@
         <v>248</v>
       </c>
       <c r="L293" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
       <c r="M293" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="N293" t="s">
-        <v>79</v>
+        <v>239</v>
       </c>
       <c r="O293" t="s">
         <v>36</v>
@@ -23421,31 +23570,31 @@
         <v>37</v>
       </c>
       <c r="Q293">
-        <v>21740991</v>
+        <v>215928650</v>
       </c>
       <c r="R293">
-        <v>24500000</v>
+        <v>228513450</v>
       </c>
       <c r="S293">
-        <v>2759009</v>
+        <v>12584800</v>
       </c>
       <c r="T293">
         <v>2378</v>
       </c>
       <c r="U293" t="s">
-        <v>109</v>
+        <v>38</v>
       </c>
       <c r="V293">
-        <v>521211</v>
+        <v>512411</v>
       </c>
       <c r="W293">
-        <v>24500000</v>
+        <v>228513450</v>
       </c>
       <c r="X293">
-        <v>411211</v>
+        <v>411121</v>
       </c>
       <c r="Y293">
-        <v>2427928</v>
+        <v>12584800</v>
       </c>
     </row>
     <row r="294" spans="1:25">
@@ -23468,43 +23617,43 @@
         <v>249</v>
       </c>
       <c r="G294" t="s">
-        <v>217</v>
+        <v>250</v>
       </c>
       <c r="H294" t="s">
+        <v>251</v>
+      </c>
+      <c r="I294" t="s">
         <v>250</v>
       </c>
-      <c r="I294" t="s">
-        <v>217</v>
-      </c>
       <c r="J294" t="s">
         <v>32</v>
       </c>
       <c r="K294" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L294" t="s">
-        <v>224</v>
+        <v>253</v>
       </c>
       <c r="M294" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="N294" t="s">
-        <v>242</v>
+        <v>177</v>
       </c>
       <c r="O294" t="s">
         <v>36</v>
       </c>
       <c r="P294" t="s">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="Q294">
-        <v>215928650</v>
+        <v>99318129</v>
       </c>
       <c r="R294">
-        <v>228513450</v>
+        <v>99318129</v>
       </c>
       <c r="S294">
-        <v>12584800</v>
+        <v>0</v>
       </c>
       <c r="T294">
         <v>2378</v>
@@ -23513,16 +23662,14 @@
         <v>38</v>
       </c>
       <c r="V294">
-        <v>512411</v>
+        <v>521111</v>
       </c>
       <c r="W294">
-        <v>228513450</v>
-      </c>
-      <c r="X294">
-        <v>411121</v>
-      </c>
+        <v>11192340</v>
+      </c>
+      <c r="X294"/>
       <c r="Y294">
-        <v>12584800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:25">
@@ -23542,28 +23689,34 @@
         <v>28</v>
       </c>
       <c r="F295" t="s">
+        <v>249</v>
+      </c>
+      <c r="G295" t="s">
+        <v>250</v>
+      </c>
+      <c r="H295" t="s">
+        <v>251</v>
+      </c>
+      <c r="I295" t="s">
+        <v>250</v>
+      </c>
+      <c r="J295" t="s">
+        <v>32</v>
+      </c>
+      <c r="K295" t="s">
         <v>252</v>
       </c>
-      <c r="G295" t="s">
+      <c r="L295" t="s">
         <v>253</v>
       </c>
-      <c r="H295" t="s">
-        <v>254</v>
-      </c>
-      <c r="I295" t="s">
-        <v>253</v>
-      </c>
-      <c r="J295" t="s">
-        <v>32</v>
-      </c>
-      <c r="K295"/>
-      <c r="L295"/>
-      <c r="M295"/>
+      <c r="M295" t="s">
+        <v>78</v>
+      </c>
       <c r="N295" t="s">
         <v>177</v>
       </c>
       <c r="O295" t="s">
-        <v>255</v>
+        <v>36</v>
       </c>
       <c r="P295" t="s">
         <v>100</v>
@@ -23584,10 +23737,10 @@
         <v>38</v>
       </c>
       <c r="V295">
-        <v>521111</v>
+        <v>521131</v>
       </c>
       <c r="W295">
-        <v>11192340</v>
+        <v>2320299</v>
       </c>
       <c r="X295"/>
       <c r="Y295">
@@ -23611,28 +23764,34 @@
         <v>28</v>
       </c>
       <c r="F296" t="s">
+        <v>249</v>
+      </c>
+      <c r="G296" t="s">
+        <v>250</v>
+      </c>
+      <c r="H296" t="s">
+        <v>251</v>
+      </c>
+      <c r="I296" t="s">
+        <v>250</v>
+      </c>
+      <c r="J296" t="s">
+        <v>32</v>
+      </c>
+      <c r="K296" t="s">
         <v>252</v>
       </c>
-      <c r="G296" t="s">
+      <c r="L296" t="s">
         <v>253</v>
       </c>
-      <c r="H296" t="s">
-        <v>254</v>
-      </c>
-      <c r="I296" t="s">
-        <v>253</v>
-      </c>
-      <c r="J296" t="s">
-        <v>32</v>
-      </c>
-      <c r="K296"/>
-      <c r="L296"/>
-      <c r="M296"/>
+      <c r="M296" t="s">
+        <v>78</v>
+      </c>
       <c r="N296" t="s">
         <v>177</v>
       </c>
       <c r="O296" t="s">
-        <v>255</v>
+        <v>36</v>
       </c>
       <c r="P296" t="s">
         <v>100</v>
@@ -23647,16 +23806,16 @@
         <v>0</v>
       </c>
       <c r="T296">
-        <v>2378</v>
+        <v>2375</v>
       </c>
       <c r="U296" t="s">
-        <v>38</v>
+        <v>185</v>
       </c>
       <c r="V296">
-        <v>521131</v>
+        <v>521211</v>
       </c>
       <c r="W296">
-        <v>2320299</v>
+        <v>7730000</v>
       </c>
       <c r="X296"/>
       <c r="Y296">
@@ -23680,28 +23839,34 @@
         <v>28</v>
       </c>
       <c r="F297" t="s">
+        <v>249</v>
+      </c>
+      <c r="G297" t="s">
+        <v>250</v>
+      </c>
+      <c r="H297" t="s">
+        <v>251</v>
+      </c>
+      <c r="I297" t="s">
+        <v>250</v>
+      </c>
+      <c r="J297" t="s">
+        <v>32</v>
+      </c>
+      <c r="K297" t="s">
         <v>252</v>
       </c>
-      <c r="G297" t="s">
+      <c r="L297" t="s">
         <v>253</v>
       </c>
-      <c r="H297" t="s">
-        <v>254</v>
-      </c>
-      <c r="I297" t="s">
-        <v>253</v>
-      </c>
-      <c r="J297" t="s">
-        <v>32</v>
-      </c>
-      <c r="K297"/>
-      <c r="L297"/>
-      <c r="M297"/>
+      <c r="M297" t="s">
+        <v>78</v>
+      </c>
       <c r="N297" t="s">
         <v>177</v>
       </c>
       <c r="O297" t="s">
-        <v>255</v>
+        <v>36</v>
       </c>
       <c r="P297" t="s">
         <v>100</v>
@@ -23716,16 +23881,16 @@
         <v>0</v>
       </c>
       <c r="T297">
-        <v>2375</v>
+        <v>2378</v>
       </c>
       <c r="U297" t="s">
-        <v>185</v>
+        <v>109</v>
       </c>
       <c r="V297">
         <v>521211</v>
       </c>
       <c r="W297">
-        <v>7730000</v>
+        <v>6000000</v>
       </c>
       <c r="X297"/>
       <c r="Y297">
@@ -23749,28 +23914,34 @@
         <v>28</v>
       </c>
       <c r="F298" t="s">
+        <v>249</v>
+      </c>
+      <c r="G298" t="s">
+        <v>250</v>
+      </c>
+      <c r="H298" t="s">
+        <v>251</v>
+      </c>
+      <c r="I298" t="s">
+        <v>250</v>
+      </c>
+      <c r="J298" t="s">
+        <v>32</v>
+      </c>
+      <c r="K298" t="s">
         <v>252</v>
       </c>
-      <c r="G298" t="s">
+      <c r="L298" t="s">
         <v>253</v>
       </c>
-      <c r="H298" t="s">
-        <v>254</v>
-      </c>
-      <c r="I298" t="s">
-        <v>253</v>
-      </c>
-      <c r="J298" t="s">
-        <v>32</v>
-      </c>
-      <c r="K298"/>
-      <c r="L298"/>
-      <c r="M298"/>
+      <c r="M298" t="s">
+        <v>78</v>
+      </c>
       <c r="N298" t="s">
         <v>177</v>
       </c>
       <c r="O298" t="s">
-        <v>255</v>
+        <v>36</v>
       </c>
       <c r="P298" t="s">
         <v>100</v>
@@ -23788,13 +23959,13 @@
         <v>2378</v>
       </c>
       <c r="U298" t="s">
-        <v>109</v>
+        <v>38</v>
       </c>
       <c r="V298">
-        <v>521211</v>
+        <v>522141</v>
       </c>
       <c r="W298">
-        <v>6000000</v>
+        <v>3000000</v>
       </c>
       <c r="X298"/>
       <c r="Y298">
@@ -23818,28 +23989,34 @@
         <v>28</v>
       </c>
       <c r="F299" t="s">
+        <v>249</v>
+      </c>
+      <c r="G299" t="s">
+        <v>250</v>
+      </c>
+      <c r="H299" t="s">
+        <v>251</v>
+      </c>
+      <c r="I299" t="s">
+        <v>250</v>
+      </c>
+      <c r="J299" t="s">
+        <v>32</v>
+      </c>
+      <c r="K299" t="s">
         <v>252</v>
       </c>
-      <c r="G299" t="s">
+      <c r="L299" t="s">
         <v>253</v>
       </c>
-      <c r="H299" t="s">
-        <v>254</v>
-      </c>
-      <c r="I299" t="s">
-        <v>253</v>
-      </c>
-      <c r="J299" t="s">
-        <v>32</v>
-      </c>
-      <c r="K299"/>
-      <c r="L299"/>
-      <c r="M299"/>
+      <c r="M299" t="s">
+        <v>78</v>
+      </c>
       <c r="N299" t="s">
         <v>177</v>
       </c>
       <c r="O299" t="s">
-        <v>255</v>
+        <v>36</v>
       </c>
       <c r="P299" t="s">
         <v>100</v>
@@ -23854,16 +24031,16 @@
         <v>0</v>
       </c>
       <c r="T299">
-        <v>2378</v>
+        <v>2375</v>
       </c>
       <c r="U299" t="s">
-        <v>38</v>
+        <v>185</v>
       </c>
       <c r="V299">
-        <v>522141</v>
+        <v>522151</v>
       </c>
       <c r="W299">
-        <v>3000000</v>
+        <v>1000000</v>
       </c>
       <c r="X299"/>
       <c r="Y299">
@@ -23887,28 +24064,34 @@
         <v>28</v>
       </c>
       <c r="F300" t="s">
+        <v>249</v>
+      </c>
+      <c r="G300" t="s">
+        <v>250</v>
+      </c>
+      <c r="H300" t="s">
+        <v>251</v>
+      </c>
+      <c r="I300" t="s">
+        <v>250</v>
+      </c>
+      <c r="J300" t="s">
+        <v>32</v>
+      </c>
+      <c r="K300" t="s">
         <v>252</v>
       </c>
-      <c r="G300" t="s">
+      <c r="L300" t="s">
         <v>253</v>
       </c>
-      <c r="H300" t="s">
-        <v>254</v>
-      </c>
-      <c r="I300" t="s">
-        <v>253</v>
-      </c>
-      <c r="J300" t="s">
-        <v>32</v>
-      </c>
-      <c r="K300"/>
-      <c r="L300"/>
-      <c r="M300"/>
+      <c r="M300" t="s">
+        <v>78</v>
+      </c>
       <c r="N300" t="s">
         <v>177</v>
       </c>
       <c r="O300" t="s">
-        <v>255</v>
+        <v>36</v>
       </c>
       <c r="P300" t="s">
         <v>100</v>
@@ -23923,16 +24106,16 @@
         <v>0</v>
       </c>
       <c r="T300">
-        <v>2375</v>
+        <v>2378</v>
       </c>
       <c r="U300" t="s">
-        <v>185</v>
+        <v>38</v>
       </c>
       <c r="V300">
-        <v>522151</v>
+        <v>523121</v>
       </c>
       <c r="W300">
-        <v>1000000</v>
+        <v>4345250</v>
       </c>
       <c r="X300"/>
       <c r="Y300">
@@ -23956,28 +24139,34 @@
         <v>28</v>
       </c>
       <c r="F301" t="s">
+        <v>249</v>
+      </c>
+      <c r="G301" t="s">
+        <v>250</v>
+      </c>
+      <c r="H301" t="s">
+        <v>251</v>
+      </c>
+      <c r="I301" t="s">
+        <v>250</v>
+      </c>
+      <c r="J301" t="s">
+        <v>32</v>
+      </c>
+      <c r="K301" t="s">
         <v>252</v>
       </c>
-      <c r="G301" t="s">
+      <c r="L301" t="s">
         <v>253</v>
       </c>
-      <c r="H301" t="s">
-        <v>254</v>
-      </c>
-      <c r="I301" t="s">
-        <v>253</v>
-      </c>
-      <c r="J301" t="s">
-        <v>32</v>
-      </c>
-      <c r="K301"/>
-      <c r="L301"/>
-      <c r="M301"/>
+      <c r="M301" t="s">
+        <v>78</v>
+      </c>
       <c r="N301" t="s">
         <v>177</v>
       </c>
       <c r="O301" t="s">
-        <v>255</v>
+        <v>36</v>
       </c>
       <c r="P301" t="s">
         <v>100</v>
@@ -23992,16 +24181,16 @@
         <v>0</v>
       </c>
       <c r="T301">
-        <v>2378</v>
+        <v>2375</v>
       </c>
       <c r="U301" t="s">
-        <v>38</v>
+        <v>185</v>
       </c>
       <c r="V301">
-        <v>523121</v>
+        <v>524111</v>
       </c>
       <c r="W301">
-        <v>4345250</v>
+        <v>22462500</v>
       </c>
       <c r="X301"/>
       <c r="Y301">
@@ -24025,28 +24214,34 @@
         <v>28</v>
       </c>
       <c r="F302" t="s">
+        <v>249</v>
+      </c>
+      <c r="G302" t="s">
+        <v>250</v>
+      </c>
+      <c r="H302" t="s">
+        <v>251</v>
+      </c>
+      <c r="I302" t="s">
+        <v>250</v>
+      </c>
+      <c r="J302" t="s">
+        <v>32</v>
+      </c>
+      <c r="K302" t="s">
         <v>252</v>
       </c>
-      <c r="G302" t="s">
+      <c r="L302" t="s">
         <v>253</v>
       </c>
-      <c r="H302" t="s">
-        <v>254</v>
-      </c>
-      <c r="I302" t="s">
-        <v>253</v>
-      </c>
-      <c r="J302" t="s">
-        <v>32</v>
-      </c>
-      <c r="K302"/>
-      <c r="L302"/>
-      <c r="M302"/>
+      <c r="M302" t="s">
+        <v>78</v>
+      </c>
       <c r="N302" t="s">
         <v>177</v>
       </c>
       <c r="O302" t="s">
-        <v>255</v>
+        <v>36</v>
       </c>
       <c r="P302" t="s">
         <v>100</v>
@@ -24061,16 +24256,16 @@
         <v>0</v>
       </c>
       <c r="T302">
-        <v>2375</v>
+        <v>2378</v>
       </c>
       <c r="U302" t="s">
-        <v>185</v>
+        <v>38</v>
       </c>
       <c r="V302">
         <v>524111</v>
       </c>
       <c r="W302">
-        <v>22462500</v>
+        <v>3932800</v>
       </c>
       <c r="X302"/>
       <c r="Y302">
@@ -24094,28 +24289,34 @@
         <v>28</v>
       </c>
       <c r="F303" t="s">
+        <v>249</v>
+      </c>
+      <c r="G303" t="s">
+        <v>250</v>
+      </c>
+      <c r="H303" t="s">
+        <v>251</v>
+      </c>
+      <c r="I303" t="s">
+        <v>250</v>
+      </c>
+      <c r="J303" t="s">
+        <v>32</v>
+      </c>
+      <c r="K303" t="s">
         <v>252</v>
       </c>
-      <c r="G303" t="s">
+      <c r="L303" t="s">
         <v>253</v>
       </c>
-      <c r="H303" t="s">
-        <v>254</v>
-      </c>
-      <c r="I303" t="s">
-        <v>253</v>
-      </c>
-      <c r="J303" t="s">
-        <v>32</v>
-      </c>
-      <c r="K303"/>
-      <c r="L303"/>
-      <c r="M303"/>
+      <c r="M303" t="s">
+        <v>78</v>
+      </c>
       <c r="N303" t="s">
         <v>177</v>
       </c>
       <c r="O303" t="s">
-        <v>255</v>
+        <v>36</v>
       </c>
       <c r="P303" t="s">
         <v>100</v>
@@ -24133,13 +24334,13 @@
         <v>2378</v>
       </c>
       <c r="U303" t="s">
-        <v>38</v>
+        <v>109</v>
       </c>
       <c r="V303">
         <v>524111</v>
       </c>
       <c r="W303">
-        <v>3932800</v>
+        <v>37334940</v>
       </c>
       <c r="X303"/>
       <c r="Y303">
@@ -24163,37 +24364,43 @@
         <v>28</v>
       </c>
       <c r="F304" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="G304" t="s">
+        <v>250</v>
+      </c>
+      <c r="H304" t="s">
+        <v>255</v>
+      </c>
+      <c r="I304" t="s">
+        <v>250</v>
+      </c>
+      <c r="J304" t="s">
+        <v>32</v>
+      </c>
+      <c r="K304" t="s">
+        <v>256</v>
+      </c>
+      <c r="L304" t="s">
         <v>253</v>
       </c>
-      <c r="H304" t="s">
-        <v>254</v>
-      </c>
-      <c r="I304" t="s">
-        <v>253</v>
-      </c>
-      <c r="J304" t="s">
-        <v>32</v>
-      </c>
-      <c r="K304"/>
-      <c r="L304"/>
-      <c r="M304"/>
+      <c r="M304" t="s">
+        <v>78</v>
+      </c>
       <c r="N304" t="s">
-        <v>177</v>
+        <v>79</v>
       </c>
       <c r="O304" t="s">
-        <v>255</v>
+        <v>36</v>
       </c>
       <c r="P304" t="s">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="Q304">
-        <v>99318129</v>
+        <v>9753677</v>
       </c>
       <c r="R304">
-        <v>99318129</v>
+        <v>9753677</v>
       </c>
       <c r="S304">
         <v>0</v>
@@ -24202,13 +24409,13 @@
         <v>2378</v>
       </c>
       <c r="U304" t="s">
-        <v>109</v>
+        <v>38</v>
       </c>
       <c r="V304">
         <v>524111</v>
       </c>
       <c r="W304">
-        <v>37334940</v>
+        <v>9753677</v>
       </c>
       <c r="X304"/>
       <c r="Y304">
@@ -24232,40 +24439,46 @@
         <v>28</v>
       </c>
       <c r="F305" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G305" t="s">
+        <v>250</v>
+      </c>
+      <c r="H305" t="s">
+        <v>258</v>
+      </c>
+      <c r="I305" t="s">
+        <v>250</v>
+      </c>
+      <c r="J305" t="s">
+        <v>32</v>
+      </c>
+      <c r="K305" t="s">
+        <v>259</v>
+      </c>
+      <c r="L305" t="s">
         <v>253</v>
       </c>
-      <c r="H305" t="s">
-        <v>257</v>
-      </c>
-      <c r="I305" t="s">
-        <v>253</v>
-      </c>
-      <c r="J305" t="s">
-        <v>32</v>
-      </c>
-      <c r="K305"/>
-      <c r="L305"/>
-      <c r="M305"/>
+      <c r="M305" t="s">
+        <v>78</v>
+      </c>
       <c r="N305" t="s">
         <v>79</v>
       </c>
       <c r="O305" t="s">
-        <v>258</v>
+        <v>36</v>
       </c>
       <c r="P305" t="s">
         <v>37</v>
       </c>
       <c r="Q305">
-        <v>9753677</v>
+        <v>1710000</v>
       </c>
       <c r="R305">
-        <v>9753677</v>
+        <v>1800000</v>
       </c>
       <c r="S305">
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="T305">
         <v>2378</v>
@@ -24274,14 +24487,16 @@
         <v>38</v>
       </c>
       <c r="V305">
-        <v>524111</v>
+        <v>522151</v>
       </c>
       <c r="W305">
-        <v>9753677</v>
-      </c>
-      <c r="X305"/>
+        <v>1800000</v>
+      </c>
+      <c r="X305">
+        <v>411121</v>
+      </c>
       <c r="Y305">
-        <v>0</v>
+        <v>90000</v>
       </c>
     </row>
     <row r="306" spans="1:25">
@@ -24301,40 +24516,46 @@
         <v>28</v>
       </c>
       <c r="F306" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G306" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="H306" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="I306" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="J306" t="s">
         <v>32</v>
       </c>
-      <c r="K306"/>
-      <c r="L306"/>
-      <c r="M306"/>
+      <c r="K306" t="s">
+        <v>263</v>
+      </c>
+      <c r="L306" t="s">
+        <v>264</v>
+      </c>
+      <c r="M306" t="s">
+        <v>78</v>
+      </c>
       <c r="N306" t="s">
         <v>79</v>
       </c>
       <c r="O306" t="s">
-        <v>258</v>
+        <v>36</v>
       </c>
       <c r="P306" t="s">
         <v>37</v>
       </c>
       <c r="Q306">
-        <v>1710000</v>
+        <v>19202000</v>
       </c>
       <c r="R306">
-        <v>1800000</v>
+        <v>21750000</v>
       </c>
       <c r="S306">
-        <v>90000</v>
+        <v>2548000</v>
       </c>
       <c r="T306">
         <v>2378</v>
@@ -24343,16 +24564,2197 @@
         <v>38</v>
       </c>
       <c r="V306">
+        <v>522191</v>
+      </c>
+      <c r="W306">
+        <v>21750000</v>
+      </c>
+      <c r="X306">
+        <v>411124</v>
+      </c>
+      <c r="Y306">
+        <v>392000</v>
+      </c>
+    </row>
+    <row r="307" spans="1:25">
+      <c r="A307">
+        <v>304</v>
+      </c>
+      <c r="B307" t="s">
+        <v>26</v>
+      </c>
+      <c r="C307">
+        <v>626402</v>
+      </c>
+      <c r="D307" t="s">
+        <v>27</v>
+      </c>
+      <c r="E307" t="s">
+        <v>28</v>
+      </c>
+      <c r="F307" t="s">
+        <v>260</v>
+      </c>
+      <c r="G307" t="s">
+        <v>261</v>
+      </c>
+      <c r="H307" t="s">
+        <v>262</v>
+      </c>
+      <c r="I307" t="s">
+        <v>261</v>
+      </c>
+      <c r="J307" t="s">
+        <v>32</v>
+      </c>
+      <c r="K307" t="s">
+        <v>263</v>
+      </c>
+      <c r="L307" t="s">
+        <v>264</v>
+      </c>
+      <c r="M307" t="s">
+        <v>78</v>
+      </c>
+      <c r="N307" t="s">
+        <v>79</v>
+      </c>
+      <c r="O307" t="s">
+        <v>36</v>
+      </c>
+      <c r="P307" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q307">
+        <v>19202000</v>
+      </c>
+      <c r="R307">
+        <v>21750000</v>
+      </c>
+      <c r="S307">
+        <v>2548000</v>
+      </c>
+      <c r="T307">
+        <v>2378</v>
+      </c>
+      <c r="U307" t="s">
+        <v>38</v>
+      </c>
+      <c r="V307">
+        <v>522191</v>
+      </c>
+      <c r="W307">
+        <v>21750000</v>
+      </c>
+      <c r="X307">
+        <v>411211</v>
+      </c>
+      <c r="Y307">
+        <v>2156000</v>
+      </c>
+    </row>
+    <row r="308" spans="1:25">
+      <c r="A308">
+        <v>305</v>
+      </c>
+      <c r="B308" t="s">
+        <v>26</v>
+      </c>
+      <c r="C308">
+        <v>626402</v>
+      </c>
+      <c r="D308" t="s">
+        <v>27</v>
+      </c>
+      <c r="E308" t="s">
+        <v>28</v>
+      </c>
+      <c r="F308" t="s">
+        <v>265</v>
+      </c>
+      <c r="G308" t="s">
+        <v>261</v>
+      </c>
+      <c r="H308" t="s">
+        <v>266</v>
+      </c>
+      <c r="I308" t="s">
+        <v>261</v>
+      </c>
+      <c r="J308" t="s">
+        <v>32</v>
+      </c>
+      <c r="K308" t="s">
+        <v>267</v>
+      </c>
+      <c r="L308" t="s">
+        <v>264</v>
+      </c>
+      <c r="M308" t="s">
+        <v>78</v>
+      </c>
+      <c r="N308" t="s">
+        <v>79</v>
+      </c>
+      <c r="O308" t="s">
+        <v>36</v>
+      </c>
+      <c r="P308" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q308">
+        <v>8608950</v>
+      </c>
+      <c r="R308">
+        <v>9751000</v>
+      </c>
+      <c r="S308">
+        <v>1142050</v>
+      </c>
+      <c r="T308">
+        <v>2378</v>
+      </c>
+      <c r="U308" t="s">
+        <v>38</v>
+      </c>
+      <c r="V308">
+        <v>523121</v>
+      </c>
+      <c r="W308">
+        <v>9751000</v>
+      </c>
+      <c r="X308">
+        <v>411124</v>
+      </c>
+      <c r="Y308">
+        <v>175700</v>
+      </c>
+    </row>
+    <row r="309" spans="1:25">
+      <c r="A309">
+        <v>306</v>
+      </c>
+      <c r="B309" t="s">
+        <v>26</v>
+      </c>
+      <c r="C309">
+        <v>626402</v>
+      </c>
+      <c r="D309" t="s">
+        <v>27</v>
+      </c>
+      <c r="E309" t="s">
+        <v>28</v>
+      </c>
+      <c r="F309" t="s">
+        <v>265</v>
+      </c>
+      <c r="G309" t="s">
+        <v>261</v>
+      </c>
+      <c r="H309" t="s">
+        <v>266</v>
+      </c>
+      <c r="I309" t="s">
+        <v>261</v>
+      </c>
+      <c r="J309" t="s">
+        <v>32</v>
+      </c>
+      <c r="K309" t="s">
+        <v>267</v>
+      </c>
+      <c r="L309" t="s">
+        <v>264</v>
+      </c>
+      <c r="M309" t="s">
+        <v>78</v>
+      </c>
+      <c r="N309" t="s">
+        <v>79</v>
+      </c>
+      <c r="O309" t="s">
+        <v>36</v>
+      </c>
+      <c r="P309" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q309">
+        <v>8608950</v>
+      </c>
+      <c r="R309">
+        <v>9751000</v>
+      </c>
+      <c r="S309">
+        <v>1142050</v>
+      </c>
+      <c r="T309">
+        <v>2378</v>
+      </c>
+      <c r="U309" t="s">
+        <v>38</v>
+      </c>
+      <c r="V309">
+        <v>523121</v>
+      </c>
+      <c r="W309">
+        <v>9751000</v>
+      </c>
+      <c r="X309">
+        <v>411211</v>
+      </c>
+      <c r="Y309">
+        <v>966350</v>
+      </c>
+    </row>
+    <row r="310" spans="1:25">
+      <c r="A310">
+        <v>307</v>
+      </c>
+      <c r="B310" t="s">
+        <v>26</v>
+      </c>
+      <c r="C310">
+        <v>626402</v>
+      </c>
+      <c r="D310" t="s">
+        <v>27</v>
+      </c>
+      <c r="E310" t="s">
+        <v>28</v>
+      </c>
+      <c r="F310" t="s">
+        <v>268</v>
+      </c>
+      <c r="G310" t="s">
+        <v>261</v>
+      </c>
+      <c r="H310" t="s">
+        <v>269</v>
+      </c>
+      <c r="I310" t="s">
+        <v>261</v>
+      </c>
+      <c r="J310" t="s">
+        <v>32</v>
+      </c>
+      <c r="K310" t="s">
+        <v>270</v>
+      </c>
+      <c r="L310" t="s">
+        <v>264</v>
+      </c>
+      <c r="M310" t="s">
+        <v>78</v>
+      </c>
+      <c r="N310" t="s">
+        <v>155</v>
+      </c>
+      <c r="O310" t="s">
+        <v>36</v>
+      </c>
+      <c r="P310" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q310">
+        <v>453188739</v>
+      </c>
+      <c r="R310">
+        <v>510700000</v>
+      </c>
+      <c r="S310">
+        <v>57511261</v>
+      </c>
+      <c r="T310">
+        <v>2378</v>
+      </c>
+      <c r="U310" t="s">
+        <v>271</v>
+      </c>
+      <c r="V310">
+        <v>532111</v>
+      </c>
+      <c r="W310">
+        <v>510700000</v>
+      </c>
+      <c r="X310">
+        <v>411122</v>
+      </c>
+      <c r="Y310">
+        <v>6901351</v>
+      </c>
+    </row>
+    <row r="311" spans="1:25">
+      <c r="A311">
+        <v>308</v>
+      </c>
+      <c r="B311" t="s">
+        <v>26</v>
+      </c>
+      <c r="C311">
+        <v>626402</v>
+      </c>
+      <c r="D311" t="s">
+        <v>27</v>
+      </c>
+      <c r="E311" t="s">
+        <v>28</v>
+      </c>
+      <c r="F311" t="s">
+        <v>268</v>
+      </c>
+      <c r="G311" t="s">
+        <v>261</v>
+      </c>
+      <c r="H311" t="s">
+        <v>269</v>
+      </c>
+      <c r="I311" t="s">
+        <v>261</v>
+      </c>
+      <c r="J311" t="s">
+        <v>32</v>
+      </c>
+      <c r="K311" t="s">
+        <v>270</v>
+      </c>
+      <c r="L311" t="s">
+        <v>264</v>
+      </c>
+      <c r="M311" t="s">
+        <v>78</v>
+      </c>
+      <c r="N311" t="s">
+        <v>155</v>
+      </c>
+      <c r="O311" t="s">
+        <v>36</v>
+      </c>
+      <c r="P311" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q311">
+        <v>453188739</v>
+      </c>
+      <c r="R311">
+        <v>510700000</v>
+      </c>
+      <c r="S311">
+        <v>57511261</v>
+      </c>
+      <c r="T311">
+        <v>2378</v>
+      </c>
+      <c r="U311" t="s">
+        <v>271</v>
+      </c>
+      <c r="V311">
+        <v>532111</v>
+      </c>
+      <c r="W311">
+        <v>510700000</v>
+      </c>
+      <c r="X311">
+        <v>411211</v>
+      </c>
+      <c r="Y311">
+        <v>50609910</v>
+      </c>
+    </row>
+    <row r="312" spans="1:25">
+      <c r="A312">
+        <v>309</v>
+      </c>
+      <c r="B312" t="s">
+        <v>26</v>
+      </c>
+      <c r="C312">
+        <v>626402</v>
+      </c>
+      <c r="D312" t="s">
+        <v>27</v>
+      </c>
+      <c r="E312" t="s">
+        <v>28</v>
+      </c>
+      <c r="F312" t="s">
+        <v>272</v>
+      </c>
+      <c r="G312" t="s">
+        <v>261</v>
+      </c>
+      <c r="H312" t="s">
+        <v>273</v>
+      </c>
+      <c r="I312" t="s">
+        <v>261</v>
+      </c>
+      <c r="J312" t="s">
+        <v>32</v>
+      </c>
+      <c r="K312" t="s">
+        <v>274</v>
+      </c>
+      <c r="L312" t="s">
+        <v>264</v>
+      </c>
+      <c r="M312" t="s">
+        <v>78</v>
+      </c>
+      <c r="N312" t="s">
+        <v>155</v>
+      </c>
+      <c r="O312" t="s">
+        <v>36</v>
+      </c>
+      <c r="P312" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q312">
+        <v>102777207</v>
+      </c>
+      <c r="R312">
+        <v>115820000</v>
+      </c>
+      <c r="S312">
+        <v>13042793</v>
+      </c>
+      <c r="T312">
+        <v>2378</v>
+      </c>
+      <c r="U312" t="s">
+        <v>271</v>
+      </c>
+      <c r="V312">
+        <v>532111</v>
+      </c>
+      <c r="W312">
+        <v>115820000</v>
+      </c>
+      <c r="X312">
+        <v>411122</v>
+      </c>
+      <c r="Y312">
+        <v>1565135</v>
+      </c>
+    </row>
+    <row r="313" spans="1:25">
+      <c r="A313">
+        <v>310</v>
+      </c>
+      <c r="B313" t="s">
+        <v>26</v>
+      </c>
+      <c r="C313">
+        <v>626402</v>
+      </c>
+      <c r="D313" t="s">
+        <v>27</v>
+      </c>
+      <c r="E313" t="s">
+        <v>28</v>
+      </c>
+      <c r="F313" t="s">
+        <v>272</v>
+      </c>
+      <c r="G313" t="s">
+        <v>261</v>
+      </c>
+      <c r="H313" t="s">
+        <v>273</v>
+      </c>
+      <c r="I313" t="s">
+        <v>261</v>
+      </c>
+      <c r="J313" t="s">
+        <v>32</v>
+      </c>
+      <c r="K313" t="s">
+        <v>274</v>
+      </c>
+      <c r="L313" t="s">
+        <v>264</v>
+      </c>
+      <c r="M313" t="s">
+        <v>78</v>
+      </c>
+      <c r="N313" t="s">
+        <v>155</v>
+      </c>
+      <c r="O313" t="s">
+        <v>36</v>
+      </c>
+      <c r="P313" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q313">
+        <v>102777207</v>
+      </c>
+      <c r="R313">
+        <v>115820000</v>
+      </c>
+      <c r="S313">
+        <v>13042793</v>
+      </c>
+      <c r="T313">
+        <v>2378</v>
+      </c>
+      <c r="U313" t="s">
+        <v>271</v>
+      </c>
+      <c r="V313">
+        <v>532111</v>
+      </c>
+      <c r="W313">
+        <v>115820000</v>
+      </c>
+      <c r="X313">
+        <v>411211</v>
+      </c>
+      <c r="Y313">
+        <v>11477658</v>
+      </c>
+    </row>
+    <row r="314" spans="1:25">
+      <c r="A314">
+        <v>311</v>
+      </c>
+      <c r="B314" t="s">
+        <v>26</v>
+      </c>
+      <c r="C314">
+        <v>626402</v>
+      </c>
+      <c r="D314" t="s">
+        <v>27</v>
+      </c>
+      <c r="E314" t="s">
+        <v>28</v>
+      </c>
+      <c r="F314" t="s">
+        <v>275</v>
+      </c>
+      <c r="G314" t="s">
+        <v>261</v>
+      </c>
+      <c r="H314" t="s">
+        <v>276</v>
+      </c>
+      <c r="I314" t="s">
+        <v>261</v>
+      </c>
+      <c r="J314" t="s">
+        <v>32</v>
+      </c>
+      <c r="K314" t="s">
+        <v>277</v>
+      </c>
+      <c r="L314" t="s">
+        <v>253</v>
+      </c>
+      <c r="M314" t="s">
+        <v>50</v>
+      </c>
+      <c r="N314" t="s">
+        <v>177</v>
+      </c>
+      <c r="O314" t="s">
+        <v>36</v>
+      </c>
+      <c r="P314" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q314">
+        <v>90797615</v>
+      </c>
+      <c r="R314">
+        <v>90797615</v>
+      </c>
+      <c r="S314">
+        <v>0</v>
+      </c>
+      <c r="T314">
+        <v>2378</v>
+      </c>
+      <c r="U314" t="s">
+        <v>38</v>
+      </c>
+      <c r="V314">
+        <v>521111</v>
+      </c>
+      <c r="W314">
+        <v>35202500</v>
+      </c>
+      <c r="X314"/>
+      <c r="Y314">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:25">
+      <c r="A315">
+        <v>312</v>
+      </c>
+      <c r="B315" t="s">
+        <v>26</v>
+      </c>
+      <c r="C315">
+        <v>626402</v>
+      </c>
+      <c r="D315" t="s">
+        <v>27</v>
+      </c>
+      <c r="E315" t="s">
+        <v>28</v>
+      </c>
+      <c r="F315" t="s">
+        <v>275</v>
+      </c>
+      <c r="G315" t="s">
+        <v>261</v>
+      </c>
+      <c r="H315" t="s">
+        <v>276</v>
+      </c>
+      <c r="I315" t="s">
+        <v>261</v>
+      </c>
+      <c r="J315" t="s">
+        <v>32</v>
+      </c>
+      <c r="K315" t="s">
+        <v>277</v>
+      </c>
+      <c r="L315" t="s">
+        <v>253</v>
+      </c>
+      <c r="M315" t="s">
+        <v>50</v>
+      </c>
+      <c r="N315" t="s">
+        <v>177</v>
+      </c>
+      <c r="O315" t="s">
+        <v>36</v>
+      </c>
+      <c r="P315" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q315">
+        <v>90797615</v>
+      </c>
+      <c r="R315">
+        <v>90797615</v>
+      </c>
+      <c r="S315">
+        <v>0</v>
+      </c>
+      <c r="T315">
+        <v>2378</v>
+      </c>
+      <c r="U315" t="s">
+        <v>38</v>
+      </c>
+      <c r="V315">
+        <v>521131</v>
+      </c>
+      <c r="W315">
+        <v>543872</v>
+      </c>
+      <c r="X315"/>
+      <c r="Y315">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:25">
+      <c r="A316">
+        <v>313</v>
+      </c>
+      <c r="B316" t="s">
+        <v>26</v>
+      </c>
+      <c r="C316">
+        <v>626402</v>
+      </c>
+      <c r="D316" t="s">
+        <v>27</v>
+      </c>
+      <c r="E316" t="s">
+        <v>28</v>
+      </c>
+      <c r="F316" t="s">
+        <v>275</v>
+      </c>
+      <c r="G316" t="s">
+        <v>261</v>
+      </c>
+      <c r="H316" t="s">
+        <v>276</v>
+      </c>
+      <c r="I316" t="s">
+        <v>261</v>
+      </c>
+      <c r="J316" t="s">
+        <v>32</v>
+      </c>
+      <c r="K316" t="s">
+        <v>277</v>
+      </c>
+      <c r="L316" t="s">
+        <v>253</v>
+      </c>
+      <c r="M316" t="s">
+        <v>50</v>
+      </c>
+      <c r="N316" t="s">
+        <v>177</v>
+      </c>
+      <c r="O316" t="s">
+        <v>36</v>
+      </c>
+      <c r="P316" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q316">
+        <v>90797615</v>
+      </c>
+      <c r="R316">
+        <v>90797615</v>
+      </c>
+      <c r="S316">
+        <v>0</v>
+      </c>
+      <c r="T316">
+        <v>2378</v>
+      </c>
+      <c r="U316" t="s">
+        <v>38</v>
+      </c>
+      <c r="V316">
+        <v>521211</v>
+      </c>
+      <c r="W316">
+        <v>1000000</v>
+      </c>
+      <c r="X316"/>
+      <c r="Y316">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:25">
+      <c r="A317">
+        <v>314</v>
+      </c>
+      <c r="B317" t="s">
+        <v>26</v>
+      </c>
+      <c r="C317">
+        <v>626402</v>
+      </c>
+      <c r="D317" t="s">
+        <v>27</v>
+      </c>
+      <c r="E317" t="s">
+        <v>28</v>
+      </c>
+      <c r="F317" t="s">
+        <v>275</v>
+      </c>
+      <c r="G317" t="s">
+        <v>261</v>
+      </c>
+      <c r="H317" t="s">
+        <v>276</v>
+      </c>
+      <c r="I317" t="s">
+        <v>261</v>
+      </c>
+      <c r="J317" t="s">
+        <v>32</v>
+      </c>
+      <c r="K317" t="s">
+        <v>277</v>
+      </c>
+      <c r="L317" t="s">
+        <v>253</v>
+      </c>
+      <c r="M317" t="s">
+        <v>50</v>
+      </c>
+      <c r="N317" t="s">
+        <v>177</v>
+      </c>
+      <c r="O317" t="s">
+        <v>36</v>
+      </c>
+      <c r="P317" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q317">
+        <v>90797615</v>
+      </c>
+      <c r="R317">
+        <v>90797615</v>
+      </c>
+      <c r="S317">
+        <v>0</v>
+      </c>
+      <c r="T317">
+        <v>2378</v>
+      </c>
+      <c r="U317" t="s">
+        <v>38</v>
+      </c>
+      <c r="V317">
+        <v>521241</v>
+      </c>
+      <c r="W317">
+        <v>540243</v>
+      </c>
+      <c r="X317"/>
+      <c r="Y317">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:25">
+      <c r="A318">
+        <v>315</v>
+      </c>
+      <c r="B318" t="s">
+        <v>26</v>
+      </c>
+      <c r="C318">
+        <v>626402</v>
+      </c>
+      <c r="D318" t="s">
+        <v>27</v>
+      </c>
+      <c r="E318" t="s">
+        <v>28</v>
+      </c>
+      <c r="F318" t="s">
+        <v>275</v>
+      </c>
+      <c r="G318" t="s">
+        <v>261</v>
+      </c>
+      <c r="H318" t="s">
+        <v>276</v>
+      </c>
+      <c r="I318" t="s">
+        <v>261</v>
+      </c>
+      <c r="J318" t="s">
+        <v>32</v>
+      </c>
+      <c r="K318" t="s">
+        <v>277</v>
+      </c>
+      <c r="L318" t="s">
+        <v>253</v>
+      </c>
+      <c r="M318" t="s">
+        <v>50</v>
+      </c>
+      <c r="N318" t="s">
+        <v>177</v>
+      </c>
+      <c r="O318" t="s">
+        <v>36</v>
+      </c>
+      <c r="P318" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q318">
+        <v>90797615</v>
+      </c>
+      <c r="R318">
+        <v>90797615</v>
+      </c>
+      <c r="S318">
+        <v>0</v>
+      </c>
+      <c r="T318">
+        <v>2378</v>
+      </c>
+      <c r="U318" t="s">
+        <v>122</v>
+      </c>
+      <c r="V318">
+        <v>521241</v>
+      </c>
+      <c r="W318">
+        <v>240000</v>
+      </c>
+      <c r="X318"/>
+      <c r="Y318">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:25">
+      <c r="A319">
+        <v>316</v>
+      </c>
+      <c r="B319" t="s">
+        <v>26</v>
+      </c>
+      <c r="C319">
+        <v>626402</v>
+      </c>
+      <c r="D319" t="s">
+        <v>27</v>
+      </c>
+      <c r="E319" t="s">
+        <v>28</v>
+      </c>
+      <c r="F319" t="s">
+        <v>275</v>
+      </c>
+      <c r="G319" t="s">
+        <v>261</v>
+      </c>
+      <c r="H319" t="s">
+        <v>276</v>
+      </c>
+      <c r="I319" t="s">
+        <v>261</v>
+      </c>
+      <c r="J319" t="s">
+        <v>32</v>
+      </c>
+      <c r="K319" t="s">
+        <v>277</v>
+      </c>
+      <c r="L319" t="s">
+        <v>253</v>
+      </c>
+      <c r="M319" t="s">
+        <v>50</v>
+      </c>
+      <c r="N319" t="s">
+        <v>177</v>
+      </c>
+      <c r="O319" t="s">
+        <v>36</v>
+      </c>
+      <c r="P319" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q319">
+        <v>90797615</v>
+      </c>
+      <c r="R319">
+        <v>90797615</v>
+      </c>
+      <c r="S319">
+        <v>0</v>
+      </c>
+      <c r="T319">
+        <v>2378</v>
+      </c>
+      <c r="U319" t="s">
+        <v>38</v>
+      </c>
+      <c r="V319">
+        <v>521811</v>
+      </c>
+      <c r="W319">
+        <v>6000000</v>
+      </c>
+      <c r="X319"/>
+      <c r="Y319">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:25">
+      <c r="A320">
+        <v>317</v>
+      </c>
+      <c r="B320" t="s">
+        <v>26</v>
+      </c>
+      <c r="C320">
+        <v>626402</v>
+      </c>
+      <c r="D320" t="s">
+        <v>27</v>
+      </c>
+      <c r="E320" t="s">
+        <v>28</v>
+      </c>
+      <c r="F320" t="s">
+        <v>275</v>
+      </c>
+      <c r="G320" t="s">
+        <v>261</v>
+      </c>
+      <c r="H320" t="s">
+        <v>276</v>
+      </c>
+      <c r="I320" t="s">
+        <v>261</v>
+      </c>
+      <c r="J320" t="s">
+        <v>32</v>
+      </c>
+      <c r="K320" t="s">
+        <v>277</v>
+      </c>
+      <c r="L320" t="s">
+        <v>253</v>
+      </c>
+      <c r="M320" t="s">
+        <v>50</v>
+      </c>
+      <c r="N320" t="s">
+        <v>177</v>
+      </c>
+      <c r="O320" t="s">
+        <v>36</v>
+      </c>
+      <c r="P320" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q320">
+        <v>90797615</v>
+      </c>
+      <c r="R320">
+        <v>90797615</v>
+      </c>
+      <c r="S320">
+        <v>0</v>
+      </c>
+      <c r="T320">
+        <v>2378</v>
+      </c>
+      <c r="U320" t="s">
+        <v>109</v>
+      </c>
+      <c r="V320">
+        <v>521811</v>
+      </c>
+      <c r="W320">
+        <v>7761000</v>
+      </c>
+      <c r="X320"/>
+      <c r="Y320">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:25">
+      <c r="A321">
+        <v>318</v>
+      </c>
+      <c r="B321" t="s">
+        <v>26</v>
+      </c>
+      <c r="C321">
+        <v>626402</v>
+      </c>
+      <c r="D321" t="s">
+        <v>27</v>
+      </c>
+      <c r="E321" t="s">
+        <v>28</v>
+      </c>
+      <c r="F321" t="s">
+        <v>275</v>
+      </c>
+      <c r="G321" t="s">
+        <v>261</v>
+      </c>
+      <c r="H321" t="s">
+        <v>276</v>
+      </c>
+      <c r="I321" t="s">
+        <v>261</v>
+      </c>
+      <c r="J321" t="s">
+        <v>32</v>
+      </c>
+      <c r="K321" t="s">
+        <v>277</v>
+      </c>
+      <c r="L321" t="s">
+        <v>253</v>
+      </c>
+      <c r="M321" t="s">
+        <v>50</v>
+      </c>
+      <c r="N321" t="s">
+        <v>177</v>
+      </c>
+      <c r="O321" t="s">
+        <v>36</v>
+      </c>
+      <c r="P321" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q321">
+        <v>90797615</v>
+      </c>
+      <c r="R321">
+        <v>90797615</v>
+      </c>
+      <c r="S321">
+        <v>0</v>
+      </c>
+      <c r="T321">
+        <v>2378</v>
+      </c>
+      <c r="U321" t="s">
+        <v>109</v>
+      </c>
+      <c r="V321">
         <v>522151</v>
       </c>
-      <c r="W306">
-        <v>1800000</v>
-      </c>
-      <c r="X306">
+      <c r="W321">
+        <v>3000000</v>
+      </c>
+      <c r="X321"/>
+      <c r="Y321">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:25">
+      <c r="A322">
+        <v>319</v>
+      </c>
+      <c r="B322" t="s">
+        <v>26</v>
+      </c>
+      <c r="C322">
+        <v>626402</v>
+      </c>
+      <c r="D322" t="s">
+        <v>27</v>
+      </c>
+      <c r="E322" t="s">
+        <v>28</v>
+      </c>
+      <c r="F322" t="s">
+        <v>275</v>
+      </c>
+      <c r="G322" t="s">
+        <v>261</v>
+      </c>
+      <c r="H322" t="s">
+        <v>276</v>
+      </c>
+      <c r="I322" t="s">
+        <v>261</v>
+      </c>
+      <c r="J322" t="s">
+        <v>32</v>
+      </c>
+      <c r="K322" t="s">
+        <v>277</v>
+      </c>
+      <c r="L322" t="s">
+        <v>253</v>
+      </c>
+      <c r="M322" t="s">
+        <v>50</v>
+      </c>
+      <c r="N322" t="s">
+        <v>177</v>
+      </c>
+      <c r="O322" t="s">
+        <v>36</v>
+      </c>
+      <c r="P322" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q322">
+        <v>90797615</v>
+      </c>
+      <c r="R322">
+        <v>90797615</v>
+      </c>
+      <c r="S322">
+        <v>0</v>
+      </c>
+      <c r="T322">
+        <v>2378</v>
+      </c>
+      <c r="U322" t="s">
+        <v>38</v>
+      </c>
+      <c r="V322">
+        <v>522191</v>
+      </c>
+      <c r="W322">
+        <v>10000000</v>
+      </c>
+      <c r="X322"/>
+      <c r="Y322">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:25">
+      <c r="A323">
+        <v>320</v>
+      </c>
+      <c r="B323" t="s">
+        <v>26</v>
+      </c>
+      <c r="C323">
+        <v>626402</v>
+      </c>
+      <c r="D323" t="s">
+        <v>27</v>
+      </c>
+      <c r="E323" t="s">
+        <v>28</v>
+      </c>
+      <c r="F323" t="s">
+        <v>275</v>
+      </c>
+      <c r="G323" t="s">
+        <v>261</v>
+      </c>
+      <c r="H323" t="s">
+        <v>276</v>
+      </c>
+      <c r="I323" t="s">
+        <v>261</v>
+      </c>
+      <c r="J323" t="s">
+        <v>32</v>
+      </c>
+      <c r="K323" t="s">
+        <v>277</v>
+      </c>
+      <c r="L323" t="s">
+        <v>253</v>
+      </c>
+      <c r="M323" t="s">
+        <v>50</v>
+      </c>
+      <c r="N323" t="s">
+        <v>177</v>
+      </c>
+      <c r="O323" t="s">
+        <v>36</v>
+      </c>
+      <c r="P323" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q323">
+        <v>90797615</v>
+      </c>
+      <c r="R323">
+        <v>90797615</v>
+      </c>
+      <c r="S323">
+        <v>0</v>
+      </c>
+      <c r="T323">
+        <v>2378</v>
+      </c>
+      <c r="U323" t="s">
+        <v>109</v>
+      </c>
+      <c r="V323">
+        <v>524111</v>
+      </c>
+      <c r="W323">
+        <v>450000</v>
+      </c>
+      <c r="X323"/>
+      <c r="Y323">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:25">
+      <c r="A324">
+        <v>321</v>
+      </c>
+      <c r="B324" t="s">
+        <v>26</v>
+      </c>
+      <c r="C324">
+        <v>626402</v>
+      </c>
+      <c r="D324" t="s">
+        <v>27</v>
+      </c>
+      <c r="E324" t="s">
+        <v>28</v>
+      </c>
+      <c r="F324" t="s">
+        <v>275</v>
+      </c>
+      <c r="G324" t="s">
+        <v>261</v>
+      </c>
+      <c r="H324" t="s">
+        <v>276</v>
+      </c>
+      <c r="I324" t="s">
+        <v>261</v>
+      </c>
+      <c r="J324" t="s">
+        <v>32</v>
+      </c>
+      <c r="K324" t="s">
+        <v>277</v>
+      </c>
+      <c r="L324" t="s">
+        <v>253</v>
+      </c>
+      <c r="M324" t="s">
+        <v>50</v>
+      </c>
+      <c r="N324" t="s">
+        <v>177</v>
+      </c>
+      <c r="O324" t="s">
+        <v>36</v>
+      </c>
+      <c r="P324" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q324">
+        <v>90797615</v>
+      </c>
+      <c r="R324">
+        <v>90797615</v>
+      </c>
+      <c r="S324">
+        <v>0</v>
+      </c>
+      <c r="T324">
+        <v>2378</v>
+      </c>
+      <c r="U324" t="s">
+        <v>38</v>
+      </c>
+      <c r="V324">
+        <v>524113</v>
+      </c>
+      <c r="W324">
+        <v>4455000</v>
+      </c>
+      <c r="X324"/>
+      <c r="Y324">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:25">
+      <c r="A325">
+        <v>322</v>
+      </c>
+      <c r="B325" t="s">
+        <v>26</v>
+      </c>
+      <c r="C325">
+        <v>626402</v>
+      </c>
+      <c r="D325" t="s">
+        <v>27</v>
+      </c>
+      <c r="E325" t="s">
+        <v>28</v>
+      </c>
+      <c r="F325" t="s">
+        <v>275</v>
+      </c>
+      <c r="G325" t="s">
+        <v>261</v>
+      </c>
+      <c r="H325" t="s">
+        <v>276</v>
+      </c>
+      <c r="I325" t="s">
+        <v>261</v>
+      </c>
+      <c r="J325" t="s">
+        <v>32</v>
+      </c>
+      <c r="K325" t="s">
+        <v>277</v>
+      </c>
+      <c r="L325" t="s">
+        <v>253</v>
+      </c>
+      <c r="M325" t="s">
+        <v>50</v>
+      </c>
+      <c r="N325" t="s">
+        <v>177</v>
+      </c>
+      <c r="O325" t="s">
+        <v>36</v>
+      </c>
+      <c r="P325" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q325">
+        <v>90797615</v>
+      </c>
+      <c r="R325">
+        <v>90797615</v>
+      </c>
+      <c r="S325">
+        <v>0</v>
+      </c>
+      <c r="T325">
+        <v>2378</v>
+      </c>
+      <c r="U325" t="s">
+        <v>38</v>
+      </c>
+      <c r="V325">
+        <v>524114</v>
+      </c>
+      <c r="W325">
+        <v>7920000</v>
+      </c>
+      <c r="X325"/>
+      <c r="Y325">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:25">
+      <c r="A326">
+        <v>323</v>
+      </c>
+      <c r="B326" t="s">
+        <v>26</v>
+      </c>
+      <c r="C326">
+        <v>626402</v>
+      </c>
+      <c r="D326" t="s">
+        <v>27</v>
+      </c>
+      <c r="E326" t="s">
+        <v>28</v>
+      </c>
+      <c r="F326" t="s">
+        <v>275</v>
+      </c>
+      <c r="G326" t="s">
+        <v>261</v>
+      </c>
+      <c r="H326" t="s">
+        <v>276</v>
+      </c>
+      <c r="I326" t="s">
+        <v>261</v>
+      </c>
+      <c r="J326" t="s">
+        <v>32</v>
+      </c>
+      <c r="K326" t="s">
+        <v>277</v>
+      </c>
+      <c r="L326" t="s">
+        <v>253</v>
+      </c>
+      <c r="M326" t="s">
+        <v>50</v>
+      </c>
+      <c r="N326" t="s">
+        <v>177</v>
+      </c>
+      <c r="O326" t="s">
+        <v>36</v>
+      </c>
+      <c r="P326" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q326">
+        <v>90797615</v>
+      </c>
+      <c r="R326">
+        <v>90797615</v>
+      </c>
+      <c r="S326">
+        <v>0</v>
+      </c>
+      <c r="T326">
+        <v>2378</v>
+      </c>
+      <c r="U326" t="s">
+        <v>122</v>
+      </c>
+      <c r="V326">
+        <v>524114</v>
+      </c>
+      <c r="W326">
+        <v>1120000</v>
+      </c>
+      <c r="X326"/>
+      <c r="Y326">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:25">
+      <c r="A327">
+        <v>324</v>
+      </c>
+      <c r="B327" t="s">
+        <v>26</v>
+      </c>
+      <c r="C327">
+        <v>626402</v>
+      </c>
+      <c r="D327" t="s">
+        <v>27</v>
+      </c>
+      <c r="E327" t="s">
+        <v>28</v>
+      </c>
+      <c r="F327" t="s">
+        <v>275</v>
+      </c>
+      <c r="G327" t="s">
+        <v>261</v>
+      </c>
+      <c r="H327" t="s">
+        <v>276</v>
+      </c>
+      <c r="I327" t="s">
+        <v>261</v>
+      </c>
+      <c r="J327" t="s">
+        <v>32</v>
+      </c>
+      <c r="K327" t="s">
+        <v>277</v>
+      </c>
+      <c r="L327" t="s">
+        <v>253</v>
+      </c>
+      <c r="M327" t="s">
+        <v>50</v>
+      </c>
+      <c r="N327" t="s">
+        <v>177</v>
+      </c>
+      <c r="O327" t="s">
+        <v>36</v>
+      </c>
+      <c r="P327" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q327">
+        <v>90797615</v>
+      </c>
+      <c r="R327">
+        <v>90797615</v>
+      </c>
+      <c r="S327">
+        <v>0</v>
+      </c>
+      <c r="T327">
+        <v>2378</v>
+      </c>
+      <c r="U327" t="s">
+        <v>109</v>
+      </c>
+      <c r="V327">
+        <v>524114</v>
+      </c>
+      <c r="W327">
+        <v>12565000</v>
+      </c>
+      <c r="X327"/>
+      <c r="Y327">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:25">
+      <c r="A328">
+        <v>325</v>
+      </c>
+      <c r="B328" t="s">
+        <v>26</v>
+      </c>
+      <c r="C328">
+        <v>626402</v>
+      </c>
+      <c r="D328" t="s">
+        <v>27</v>
+      </c>
+      <c r="E328" t="s">
+        <v>28</v>
+      </c>
+      <c r="F328" t="s">
+        <v>278</v>
+      </c>
+      <c r="G328" t="s">
+        <v>261</v>
+      </c>
+      <c r="H328" t="s">
+        <v>279</v>
+      </c>
+      <c r="I328" t="s">
+        <v>280</v>
+      </c>
+      <c r="J328" t="s">
+        <v>85</v>
+      </c>
+      <c r="K328"/>
+      <c r="L328"/>
+      <c r="M328"/>
+      <c r="N328" t="s">
+        <v>79</v>
+      </c>
+      <c r="O328" t="s">
+        <v>281</v>
+      </c>
+      <c r="P328" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q328">
+        <v>16394000</v>
+      </c>
+      <c r="R328">
+        <v>16394000</v>
+      </c>
+      <c r="S328">
+        <v>0</v>
+      </c>
+      <c r="T328">
+        <v>2378</v>
+      </c>
+      <c r="U328" t="s">
+        <v>38</v>
+      </c>
+      <c r="V328">
+        <v>524111</v>
+      </c>
+      <c r="W328">
+        <v>16394000</v>
+      </c>
+      <c r="X328"/>
+      <c r="Y328">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:25">
+      <c r="A329">
+        <v>326</v>
+      </c>
+      <c r="B329" t="s">
+        <v>26</v>
+      </c>
+      <c r="C329">
+        <v>626402</v>
+      </c>
+      <c r="D329" t="s">
+        <v>27</v>
+      </c>
+      <c r="E329" t="s">
+        <v>28</v>
+      </c>
+      <c r="F329" t="s">
+        <v>282</v>
+      </c>
+      <c r="G329" t="s">
+        <v>261</v>
+      </c>
+      <c r="H329" t="s">
+        <v>283</v>
+      </c>
+      <c r="I329" t="s">
+        <v>280</v>
+      </c>
+      <c r="J329" t="s">
+        <v>85</v>
+      </c>
+      <c r="K329"/>
+      <c r="L329"/>
+      <c r="M329"/>
+      <c r="N329" t="s">
+        <v>239</v>
+      </c>
+      <c r="O329" t="s">
+        <v>281</v>
+      </c>
+      <c r="P329" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q329">
+        <v>138195036</v>
+      </c>
+      <c r="R329">
+        <v>138195036</v>
+      </c>
+      <c r="S329">
+        <v>0</v>
+      </c>
+      <c r="T329">
+        <v>4345</v>
+      </c>
+      <c r="U329" t="s">
+        <v>122</v>
+      </c>
+      <c r="V329">
+        <v>521219</v>
+      </c>
+      <c r="W329">
+        <v>138195036</v>
+      </c>
+      <c r="X329"/>
+      <c r="Y329">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:25">
+      <c r="A330">
+        <v>327</v>
+      </c>
+      <c r="B330" t="s">
+        <v>26</v>
+      </c>
+      <c r="C330">
+        <v>626402</v>
+      </c>
+      <c r="D330" t="s">
+        <v>27</v>
+      </c>
+      <c r="E330" t="s">
+        <v>28</v>
+      </c>
+      <c r="F330" t="s">
+        <v>284</v>
+      </c>
+      <c r="G330" t="s">
+        <v>261</v>
+      </c>
+      <c r="H330" t="s">
+        <v>285</v>
+      </c>
+      <c r="I330" t="s">
+        <v>280</v>
+      </c>
+      <c r="J330" t="s">
+        <v>85</v>
+      </c>
+      <c r="K330"/>
+      <c r="L330"/>
+      <c r="M330"/>
+      <c r="N330" t="s">
+        <v>239</v>
+      </c>
+      <c r="O330" t="s">
+        <v>281</v>
+      </c>
+      <c r="P330" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q330">
+        <v>232550040</v>
+      </c>
+      <c r="R330">
+        <v>232550040</v>
+      </c>
+      <c r="S330">
+        <v>0</v>
+      </c>
+      <c r="T330">
+        <v>4345</v>
+      </c>
+      <c r="U330" t="s">
+        <v>122</v>
+      </c>
+      <c r="V330">
+        <v>521219</v>
+      </c>
+      <c r="W330">
+        <v>232550040</v>
+      </c>
+      <c r="X330"/>
+      <c r="Y330">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:25">
+      <c r="A331">
+        <v>328</v>
+      </c>
+      <c r="B331" t="s">
+        <v>26</v>
+      </c>
+      <c r="C331">
+        <v>626402</v>
+      </c>
+      <c r="D331" t="s">
+        <v>27</v>
+      </c>
+      <c r="E331" t="s">
+        <v>28</v>
+      </c>
+      <c r="F331" t="s">
+        <v>286</v>
+      </c>
+      <c r="G331" t="s">
+        <v>287</v>
+      </c>
+      <c r="H331" t="s">
+        <v>288</v>
+      </c>
+      <c r="I331" t="s">
+        <v>287</v>
+      </c>
+      <c r="J331" t="s">
+        <v>32</v>
+      </c>
+      <c r="K331" t="s">
+        <v>289</v>
+      </c>
+      <c r="L331" t="s">
+        <v>264</v>
+      </c>
+      <c r="M331" t="s">
+        <v>50</v>
+      </c>
+      <c r="N331" t="s">
+        <v>290</v>
+      </c>
+      <c r="O331" t="s">
+        <v>36</v>
+      </c>
+      <c r="P331" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q331">
+        <v>10105920</v>
+      </c>
+      <c r="R331">
+        <v>10208000</v>
+      </c>
+      <c r="S331">
+        <v>102080</v>
+      </c>
+      <c r="T331">
+        <v>2378</v>
+      </c>
+      <c r="U331" t="s">
+        <v>38</v>
+      </c>
+      <c r="V331">
+        <v>521111</v>
+      </c>
+      <c r="W331">
+        <v>10208000</v>
+      </c>
+      <c r="X331">
+        <v>811141</v>
+      </c>
+      <c r="Y331">
+        <v>102080</v>
+      </c>
+    </row>
+    <row r="332" spans="1:25">
+      <c r="A332">
+        <v>329</v>
+      </c>
+      <c r="B332" t="s">
+        <v>26</v>
+      </c>
+      <c r="C332">
+        <v>626402</v>
+      </c>
+      <c r="D332" t="s">
+        <v>27</v>
+      </c>
+      <c r="E332" t="s">
+        <v>28</v>
+      </c>
+      <c r="F332" t="s">
+        <v>291</v>
+      </c>
+      <c r="G332" t="s">
+        <v>292</v>
+      </c>
+      <c r="H332" t="s">
+        <v>293</v>
+      </c>
+      <c r="I332" t="s">
+        <v>292</v>
+      </c>
+      <c r="J332" t="s">
+        <v>32</v>
+      </c>
+      <c r="K332" t="s">
+        <v>294</v>
+      </c>
+      <c r="L332" t="s">
+        <v>264</v>
+      </c>
+      <c r="M332" t="s">
+        <v>32</v>
+      </c>
+      <c r="N332" t="s">
+        <v>290</v>
+      </c>
+      <c r="O332" t="s">
+        <v>36</v>
+      </c>
+      <c r="P332" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q332">
+        <v>5052960</v>
+      </c>
+      <c r="R332">
+        <v>5104000</v>
+      </c>
+      <c r="S332">
+        <v>51040</v>
+      </c>
+      <c r="T332">
+        <v>2378</v>
+      </c>
+      <c r="U332" t="s">
+        <v>38</v>
+      </c>
+      <c r="V332">
+        <v>521111</v>
+      </c>
+      <c r="W332">
+        <v>5104000</v>
+      </c>
+      <c r="X332">
+        <v>811141</v>
+      </c>
+      <c r="Y332">
+        <v>51040</v>
+      </c>
+    </row>
+    <row r="333" spans="1:25">
+      <c r="A333">
+        <v>330</v>
+      </c>
+      <c r="B333" t="s">
+        <v>26</v>
+      </c>
+      <c r="C333">
+        <v>626402</v>
+      </c>
+      <c r="D333" t="s">
+        <v>27</v>
+      </c>
+      <c r="E333" t="s">
+        <v>28</v>
+      </c>
+      <c r="F333" t="s">
+        <v>295</v>
+      </c>
+      <c r="G333" t="s">
+        <v>292</v>
+      </c>
+      <c r="H333" t="s">
+        <v>296</v>
+      </c>
+      <c r="I333" t="s">
+        <v>292</v>
+      </c>
+      <c r="J333" t="s">
+        <v>32</v>
+      </c>
+      <c r="K333" t="s">
+        <v>297</v>
+      </c>
+      <c r="L333" t="s">
+        <v>298</v>
+      </c>
+      <c r="M333" t="s">
+        <v>145</v>
+      </c>
+      <c r="N333" t="s">
+        <v>299</v>
+      </c>
+      <c r="O333" t="s">
+        <v>36</v>
+      </c>
+      <c r="P333" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q333">
+        <v>20226350</v>
+      </c>
+      <c r="R333">
+        <v>22005000</v>
+      </c>
+      <c r="S333">
+        <v>1778650</v>
+      </c>
+      <c r="T333">
+        <v>2378</v>
+      </c>
+      <c r="U333" t="s">
+        <v>38</v>
+      </c>
+      <c r="V333">
+        <v>511129</v>
+      </c>
+      <c r="W333">
+        <v>22005000</v>
+      </c>
+      <c r="X333">
         <v>411121</v>
       </c>
-      <c r="Y306">
-        <v>90000</v>
+      <c r="Y333">
+        <v>1778650</v>
+      </c>
+    </row>
+    <row r="334" spans="1:25">
+      <c r="A334">
+        <v>331</v>
+      </c>
+      <c r="B334" t="s">
+        <v>26</v>
+      </c>
+      <c r="C334">
+        <v>626402</v>
+      </c>
+      <c r="D334" t="s">
+        <v>27</v>
+      </c>
+      <c r="E334" t="s">
+        <v>28</v>
+      </c>
+      <c r="F334" t="s">
+        <v>300</v>
+      </c>
+      <c r="G334" t="s">
+        <v>292</v>
+      </c>
+      <c r="H334" t="s">
+        <v>301</v>
+      </c>
+      <c r="I334" t="s">
+        <v>292</v>
+      </c>
+      <c r="J334" t="s">
+        <v>32</v>
+      </c>
+      <c r="K334" t="s">
+        <v>302</v>
+      </c>
+      <c r="L334" t="s">
+        <v>298</v>
+      </c>
+      <c r="M334" t="s">
+        <v>145</v>
+      </c>
+      <c r="N334" t="s">
+        <v>299</v>
+      </c>
+      <c r="O334" t="s">
+        <v>36</v>
+      </c>
+      <c r="P334" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q334">
+        <v>22399500</v>
+      </c>
+      <c r="R334">
+        <v>24089000</v>
+      </c>
+      <c r="S334">
+        <v>1689500</v>
+      </c>
+      <c r="T334">
+        <v>2378</v>
+      </c>
+      <c r="U334" t="s">
+        <v>38</v>
+      </c>
+      <c r="V334">
+        <v>511129</v>
+      </c>
+      <c r="W334">
+        <v>24089000</v>
+      </c>
+      <c r="X334">
+        <v>411121</v>
+      </c>
+      <c r="Y334">
+        <v>1689500</v>
+      </c>
+    </row>
+    <row r="335" spans="1:25">
+      <c r="A335">
+        <v>332</v>
+      </c>
+      <c r="B335" t="s">
+        <v>26</v>
+      </c>
+      <c r="C335">
+        <v>626402</v>
+      </c>
+      <c r="D335" t="s">
+        <v>27</v>
+      </c>
+      <c r="E335" t="s">
+        <v>28</v>
+      </c>
+      <c r="F335" t="s">
+        <v>303</v>
+      </c>
+      <c r="G335" t="s">
+        <v>292</v>
+      </c>
+      <c r="H335" t="s">
+        <v>304</v>
+      </c>
+      <c r="I335" t="s">
+        <v>292</v>
+      </c>
+      <c r="J335" t="s">
+        <v>32</v>
+      </c>
+      <c r="K335" t="s">
+        <v>305</v>
+      </c>
+      <c r="L335" t="s">
+        <v>298</v>
+      </c>
+      <c r="M335" t="s">
+        <v>145</v>
+      </c>
+      <c r="N335" t="s">
+        <v>299</v>
+      </c>
+      <c r="O335" t="s">
+        <v>36</v>
+      </c>
+      <c r="P335" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q335">
+        <v>27335800</v>
+      </c>
+      <c r="R335">
+        <v>28977000</v>
+      </c>
+      <c r="S335">
+        <v>1641200</v>
+      </c>
+      <c r="T335">
+        <v>2378</v>
+      </c>
+      <c r="U335" t="s">
+        <v>38</v>
+      </c>
+      <c r="V335">
+        <v>511129</v>
+      </c>
+      <c r="W335">
+        <v>28977000</v>
+      </c>
+      <c r="X335">
+        <v>411121</v>
+      </c>
+      <c r="Y335">
+        <v>1641200</v>
       </c>
     </row>
   </sheetData>
